--- a/CP04OSSM/Omaha_Cal_Info_CP04OSSM_00002.xlsx
+++ b/CP04OSSM/Omaha_Cal_Info_CP04OSSM_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CP04OSSM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="8660" windowWidth="23620" windowHeight="13540" tabRatio="766"/>
+    <workbookView xWindow="12375" yWindow="8655" windowWidth="23625" windowHeight="13545" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="201">
   <si>
     <t>Ref Des</t>
   </si>
@@ -468,9 +473,6 @@
     <t>AT-27</t>
   </si>
   <si>
-    <t>CP04ISSM-00002-MOPAK</t>
-  </si>
-  <si>
     <t>CP04OSSM-00002-CPM2</t>
   </si>
   <si>
@@ -499,9 +501,6 @@
   </si>
   <si>
     <t>Need to determine if any cal parameters are required for this instrument</t>
-  </si>
-  <si>
-    <t>CP04ISSM-00002-METBK</t>
   </si>
   <si>
     <t>34-229-50A</t>
@@ -632,20 +631,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">This is a bogus serial number; no Calibration Coefficient.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>S/N to be determined on recovery.</t>
-    </r>
-  </si>
-  <si>
     <t>CP04OSSM-SBD11-02-HYDGN0000</t>
   </si>
   <si>
@@ -723,18 +708,30 @@
   <si>
     <t>[2.80123E-03,1.18488E-04,2.42419E-06,2.29227E02,-3.56919E-01,-5.75646E01,4.56208E00]</t>
   </si>
+  <si>
+    <t>CP04OSSM-SBD11-HYDGN</t>
+  </si>
+  <si>
+    <t>CP04OSSM-SBD12-HYDGN</t>
+  </si>
+  <si>
+    <t>CP04OSSM-00002-MOPAK</t>
+  </si>
+  <si>
+    <t>CP04OSSM-00002-METBK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -1114,13 +1111,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1145,7 +1142,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1230,7 +1227,7 @@
     <xf numFmtId="14" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,7 +1245,7 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="15" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1257,14 +1254,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1292,10 +1286,10 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1318,6 +1312,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="159">
     <cellStyle name="Comma 2" xfId="74"/>
@@ -1494,7 +1491,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1799,29 +1796,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="15" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="15"/>
+    <col min="2" max="2" width="15.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="13" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>142</v>
       </c>
@@ -1866,20 +1863,20 @@
       <c r="C2" s="19">
         <v>2</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <v>42133</v>
       </c>
       <c r="E2" s="18">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="32">
         <v>42300</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>179</v>
+      <c r="G2" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="I2" s="3">
         <v>442</v>
@@ -1888,25 +1885,31 @@
         <v>144</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="4" spans="1:13" customFormat="1"/>
-    <row r="5" spans="1:13" customFormat="1"/>
-    <row r="6" spans="1:13" customFormat="1"/>
-    <row r="7" spans="1:13" customFormat="1"/>
-    <row r="8" spans="1:13" customFormat="1"/>
-    <row r="9" spans="1:13" customFormat="1"/>
-    <row r="10" spans="1:13" customFormat="1"/>
-    <row r="11" spans="1:13" customFormat="1"/>
-    <row r="12" spans="1:13" customFormat="1"/>
-    <row r="13" spans="1:13" customFormat="1"/>
-    <row r="14" spans="1:13" customFormat="1"/>
-    <row r="15" spans="1:13" customFormat="1"/>
-    <row r="16" spans="1:13" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
+      <c r="L2" s="42">
+        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
+        <v>39.940633333333331</v>
+      </c>
+      <c r="M2" s="42">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
+        <v>-70.878550000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1922,31 +1925,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="28" style="6" customWidth="1"/>
-    <col min="7" max="7" width="64.33203125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="6"/>
+    <col min="7" max="7" width="64.28515625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7 1025:1025" s="2" customFormat="1" ht="28">
+    <row r="1" spans="1:7 1025:1025" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1962,13 +1965,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7 1025:1025">
+    <row r="2" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:7 1025:1025">
+    <row r="3" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>112</v>
       </c>
@@ -1978,34 +1981,36 @@
       <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="D3" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:7 1025:1025" customFormat="1">
-      <c r="AMK4" s="25"/>
-    </row>
-    <row r="5" spans="1:7 1025:1025" s="21" customFormat="1">
-      <c r="A5" s="31" t="s">
+    <row r="4" spans="1:7 1025:1025" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AMK4" s="24"/>
+    </row>
+    <row r="5" spans="1:7 1025:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="30">
-        <v>1</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7 1025:1025">
+    </row>
+    <row r="7" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>113</v>
       </c>
@@ -2015,20 +2020,18 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>156</v>
+      <c r="D7" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>39.940633333333331</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7 1025:1025">
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>113</v>
       </c>
@@ -2038,20 +2041,18 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>156</v>
+      <c r="D8" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>-70.878550000000004</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7 1025:1025">
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>113</v>
       </c>
@@ -2061,20 +2062,18 @@
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>156</v>
+      <c r="D9" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <v>1.0668</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7 1025:1025">
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -2084,20 +2083,18 @@
       <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>156</v>
+      <c r="D10" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="34">
         <v>4.2926000000000002</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7 1025:1025">
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>113</v>
       </c>
@@ -2107,20 +2104,18 @@
       <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>156</v>
+      <c r="D11" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <v>4.2926000000000002</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7 1025:1025">
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>113</v>
       </c>
@@ -2130,20 +2125,18 @@
       <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>156</v>
+      <c r="D12" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <v>4.7497999999999996</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7 1025:1025">
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>113</v>
       </c>
@@ -2153,20 +2146,20 @@
       <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>156</v>
+      <c r="D13" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="34">
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:7 1025:1025">
+    <row r="14" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>113</v>
       </c>
@@ -2176,20 +2169,20 @@
       <c r="C14" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>156</v>
+      <c r="D14" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:7 1025:1025">
+    <row r="15" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>113</v>
       </c>
@@ -2199,1067 +2192,1069 @@
       <c r="C15" s="6">
         <v>2</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>156</v>
+      <c r="D15" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="34">
         <v>600</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7 1025:1025">
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:1025" s="21" customFormat="1">
-      <c r="A17" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="30">
+    <row r="16" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="29">
         <v>1</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1025" customFormat="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="25"/>
-      <c r="AL18" s="25"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
-      <c r="AQ18" s="25"/>
-      <c r="AR18" s="25"/>
-      <c r="AS18" s="25"/>
-      <c r="AT18" s="25"/>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="25"/>
-      <c r="AW18" s="25"/>
-      <c r="AX18" s="25"/>
-      <c r="AY18" s="25"/>
-      <c r="AZ18" s="25"/>
-      <c r="BA18" s="25"/>
-      <c r="BB18" s="25"/>
-      <c r="BC18" s="25"/>
-      <c r="BD18" s="25"/>
-      <c r="BE18" s="25"/>
-      <c r="BF18" s="25"/>
-      <c r="BG18" s="25"/>
-      <c r="BH18" s="25"/>
-      <c r="BI18" s="25"/>
-      <c r="BJ18" s="25"/>
-      <c r="BK18" s="25"/>
-      <c r="BL18" s="25"/>
-      <c r="BM18" s="25"/>
-      <c r="BN18" s="25"/>
-      <c r="BO18" s="25"/>
-      <c r="BP18" s="25"/>
-      <c r="BQ18" s="25"/>
-      <c r="BR18" s="25"/>
-      <c r="BS18" s="25"/>
-      <c r="BT18" s="25"/>
-      <c r="BU18" s="25"/>
-      <c r="BV18" s="25"/>
-      <c r="BW18" s="25"/>
-      <c r="BX18" s="25"/>
-      <c r="BY18" s="25"/>
-      <c r="BZ18" s="25"/>
-      <c r="CA18" s="25"/>
-      <c r="CB18" s="25"/>
-      <c r="CC18" s="25"/>
-      <c r="CD18" s="25"/>
-      <c r="CE18" s="25"/>
-      <c r="CF18" s="25"/>
-      <c r="CG18" s="25"/>
-      <c r="CH18" s="25"/>
-      <c r="CI18" s="25"/>
-      <c r="CJ18" s="25"/>
-      <c r="CK18" s="25"/>
-      <c r="CL18" s="25"/>
-      <c r="CM18" s="25"/>
-      <c r="CN18" s="25"/>
-      <c r="CO18" s="25"/>
-      <c r="CP18" s="25"/>
-      <c r="CQ18" s="25"/>
-      <c r="CR18" s="25"/>
-      <c r="CS18" s="25"/>
-      <c r="CT18" s="25"/>
-      <c r="CU18" s="25"/>
-      <c r="CV18" s="25"/>
-      <c r="CW18" s="25"/>
-      <c r="CX18" s="25"/>
-      <c r="CY18" s="25"/>
-      <c r="CZ18" s="25"/>
-      <c r="DA18" s="25"/>
-      <c r="DB18" s="25"/>
-      <c r="DC18" s="25"/>
-      <c r="DD18" s="25"/>
-      <c r="DE18" s="25"/>
-      <c r="DF18" s="25"/>
-      <c r="DG18" s="25"/>
-      <c r="DH18" s="25"/>
-      <c r="DI18" s="25"/>
-      <c r="DJ18" s="25"/>
-      <c r="DK18" s="25"/>
-      <c r="DL18" s="25"/>
-      <c r="DM18" s="25"/>
-      <c r="DN18" s="25"/>
-      <c r="DO18" s="25"/>
-      <c r="DP18" s="25"/>
-      <c r="DQ18" s="25"/>
-      <c r="DR18" s="25"/>
-      <c r="DS18" s="25"/>
-      <c r="DT18" s="25"/>
-      <c r="DU18" s="25"/>
-      <c r="DV18" s="25"/>
-      <c r="DW18" s="25"/>
-      <c r="DX18" s="25"/>
-      <c r="DY18" s="25"/>
-      <c r="DZ18" s="25"/>
-      <c r="EA18" s="25"/>
-      <c r="EB18" s="25"/>
-      <c r="EC18" s="25"/>
-      <c r="ED18" s="25"/>
-      <c r="EE18" s="25"/>
-      <c r="EF18" s="25"/>
-      <c r="EG18" s="25"/>
-      <c r="EH18" s="25"/>
-      <c r="EI18" s="25"/>
-      <c r="EJ18" s="25"/>
-      <c r="EK18" s="25"/>
-      <c r="EL18" s="25"/>
-      <c r="EM18" s="25"/>
-      <c r="EN18" s="25"/>
-      <c r="EO18" s="25"/>
-      <c r="EP18" s="25"/>
-      <c r="EQ18" s="25"/>
-      <c r="ER18" s="25"/>
-      <c r="ES18" s="25"/>
-      <c r="ET18" s="25"/>
-      <c r="EU18" s="25"/>
-      <c r="EV18" s="25"/>
-      <c r="EW18" s="25"/>
-      <c r="EX18" s="25"/>
-      <c r="EY18" s="25"/>
-      <c r="EZ18" s="25"/>
-      <c r="FA18" s="25"/>
-      <c r="FB18" s="25"/>
-      <c r="FC18" s="25"/>
-      <c r="FD18" s="25"/>
-      <c r="FE18" s="25"/>
-      <c r="FF18" s="25"/>
-      <c r="FG18" s="25"/>
-      <c r="FH18" s="25"/>
-      <c r="FI18" s="25"/>
-      <c r="FJ18" s="25"/>
-      <c r="FK18" s="25"/>
-      <c r="FL18" s="25"/>
-      <c r="FM18" s="25"/>
-      <c r="FN18" s="25"/>
-      <c r="FO18" s="25"/>
-      <c r="FP18" s="25"/>
-      <c r="FQ18" s="25"/>
-      <c r="FR18" s="25"/>
-      <c r="FS18" s="25"/>
-      <c r="FT18" s="25"/>
-      <c r="FU18" s="25"/>
-      <c r="FV18" s="25"/>
-      <c r="FW18" s="25"/>
-      <c r="FX18" s="25"/>
-      <c r="FY18" s="25"/>
-      <c r="FZ18" s="25"/>
-      <c r="GA18" s="25"/>
-      <c r="GB18" s="25"/>
-      <c r="GC18" s="25"/>
-      <c r="GD18" s="25"/>
-      <c r="GE18" s="25"/>
-      <c r="GF18" s="25"/>
-      <c r="GG18" s="25"/>
-      <c r="GH18" s="25"/>
-      <c r="GI18" s="25"/>
-      <c r="GJ18" s="25"/>
-      <c r="GK18" s="25"/>
-      <c r="GL18" s="25"/>
-      <c r="GM18" s="25"/>
-      <c r="GN18" s="25"/>
-      <c r="GO18" s="25"/>
-      <c r="GP18" s="25"/>
-      <c r="GQ18" s="25"/>
-      <c r="GR18" s="25"/>
-      <c r="GS18" s="25"/>
-      <c r="GT18" s="25"/>
-      <c r="GU18" s="25"/>
-      <c r="GV18" s="25"/>
-      <c r="GW18" s="25"/>
-      <c r="GX18" s="25"/>
-      <c r="GY18" s="25"/>
-      <c r="GZ18" s="25"/>
-      <c r="HA18" s="25"/>
-      <c r="HB18" s="25"/>
-      <c r="HC18" s="25"/>
-      <c r="HD18" s="25"/>
-      <c r="HE18" s="25"/>
-      <c r="HF18" s="25"/>
-      <c r="HG18" s="25"/>
-      <c r="HH18" s="25"/>
-      <c r="HI18" s="25"/>
-      <c r="HJ18" s="25"/>
-      <c r="HK18" s="25"/>
-      <c r="HL18" s="25"/>
-      <c r="HM18" s="25"/>
-      <c r="HN18" s="25"/>
-      <c r="HO18" s="25"/>
-      <c r="HP18" s="25"/>
-      <c r="HQ18" s="25"/>
-      <c r="HR18" s="25"/>
-      <c r="HS18" s="25"/>
-      <c r="HT18" s="25"/>
-      <c r="HU18" s="25"/>
-      <c r="HV18" s="25"/>
-      <c r="HW18" s="25"/>
-      <c r="HX18" s="25"/>
-      <c r="HY18" s="25"/>
-      <c r="HZ18" s="25"/>
-      <c r="IA18" s="25"/>
-      <c r="IB18" s="25"/>
-      <c r="IC18" s="25"/>
-      <c r="ID18" s="25"/>
-      <c r="IE18" s="25"/>
-      <c r="IF18" s="25"/>
-      <c r="IG18" s="25"/>
-      <c r="IH18" s="25"/>
-      <c r="II18" s="25"/>
-      <c r="IJ18" s="25"/>
-      <c r="IK18" s="25"/>
-      <c r="IL18" s="25"/>
-      <c r="IM18" s="25"/>
-      <c r="IN18" s="25"/>
-      <c r="IO18" s="25"/>
-      <c r="IP18" s="25"/>
-      <c r="IQ18" s="25"/>
-      <c r="IR18" s="25"/>
-      <c r="IS18" s="25"/>
-      <c r="IT18" s="25"/>
-      <c r="IU18" s="25"/>
-      <c r="IV18" s="25"/>
-      <c r="IW18" s="25"/>
-      <c r="IX18" s="25"/>
-      <c r="IY18" s="25"/>
-      <c r="IZ18" s="25"/>
-      <c r="JA18" s="25"/>
-      <c r="JB18" s="25"/>
-      <c r="JC18" s="25"/>
-      <c r="JD18" s="25"/>
-      <c r="JE18" s="25"/>
-      <c r="JF18" s="25"/>
-      <c r="JG18" s="25"/>
-      <c r="JH18" s="25"/>
-      <c r="JI18" s="25"/>
-      <c r="JJ18" s="25"/>
-      <c r="JK18" s="25"/>
-      <c r="JL18" s="25"/>
-      <c r="JM18" s="25"/>
-      <c r="JN18" s="25"/>
-      <c r="JO18" s="25"/>
-      <c r="JP18" s="25"/>
-      <c r="JQ18" s="25"/>
-      <c r="JR18" s="25"/>
-      <c r="JS18" s="25"/>
-      <c r="JT18" s="25"/>
-      <c r="JU18" s="25"/>
-      <c r="JV18" s="25"/>
-      <c r="JW18" s="25"/>
-      <c r="JX18" s="25"/>
-      <c r="JY18" s="25"/>
-      <c r="JZ18" s="25"/>
-      <c r="KA18" s="25"/>
-      <c r="KB18" s="25"/>
-      <c r="KC18" s="25"/>
-      <c r="KD18" s="25"/>
-      <c r="KE18" s="25"/>
-      <c r="KF18" s="25"/>
-      <c r="KG18" s="25"/>
-      <c r="KH18" s="25"/>
-      <c r="KI18" s="25"/>
-      <c r="KJ18" s="25"/>
-      <c r="KK18" s="25"/>
-      <c r="KL18" s="25"/>
-      <c r="KM18" s="25"/>
-      <c r="KN18" s="25"/>
-      <c r="KO18" s="25"/>
-      <c r="KP18" s="25"/>
-      <c r="KQ18" s="25"/>
-      <c r="KR18" s="25"/>
-      <c r="KS18" s="25"/>
-      <c r="KT18" s="25"/>
-      <c r="KU18" s="25"/>
-      <c r="KV18" s="25"/>
-      <c r="KW18" s="25"/>
-      <c r="KX18" s="25"/>
-      <c r="KY18" s="25"/>
-      <c r="KZ18" s="25"/>
-      <c r="LA18" s="25"/>
-      <c r="LB18" s="25"/>
-      <c r="LC18" s="25"/>
-      <c r="LD18" s="25"/>
-      <c r="LE18" s="25"/>
-      <c r="LF18" s="25"/>
-      <c r="LG18" s="25"/>
-      <c r="LH18" s="25"/>
-      <c r="LI18" s="25"/>
-      <c r="LJ18" s="25"/>
-      <c r="LK18" s="25"/>
-      <c r="LL18" s="25"/>
-      <c r="LM18" s="25"/>
-      <c r="LN18" s="25"/>
-      <c r="LO18" s="25"/>
-      <c r="LP18" s="25"/>
-      <c r="LQ18" s="25"/>
-      <c r="LR18" s="25"/>
-      <c r="LS18" s="25"/>
-      <c r="LT18" s="25"/>
-      <c r="LU18" s="25"/>
-      <c r="LV18" s="25"/>
-      <c r="LW18" s="25"/>
-      <c r="LX18" s="25"/>
-      <c r="LY18" s="25"/>
-      <c r="LZ18" s="25"/>
-      <c r="MA18" s="25"/>
-      <c r="MB18" s="25"/>
-      <c r="MC18" s="25"/>
-      <c r="MD18" s="25"/>
-      <c r="ME18" s="25"/>
-      <c r="MF18" s="25"/>
-      <c r="MG18" s="25"/>
-      <c r="MH18" s="25"/>
-      <c r="MI18" s="25"/>
-      <c r="MJ18" s="25"/>
-      <c r="MK18" s="25"/>
-      <c r="ML18" s="25"/>
-      <c r="MM18" s="25"/>
-      <c r="MN18" s="25"/>
-      <c r="MO18" s="25"/>
-      <c r="MP18" s="25"/>
-      <c r="MQ18" s="25"/>
-      <c r="MR18" s="25"/>
-      <c r="MS18" s="25"/>
-      <c r="MT18" s="25"/>
-      <c r="MU18" s="25"/>
-      <c r="MV18" s="25"/>
-      <c r="MW18" s="25"/>
-      <c r="MX18" s="25"/>
-      <c r="MY18" s="25"/>
-      <c r="MZ18" s="25"/>
-      <c r="NA18" s="25"/>
-      <c r="NB18" s="25"/>
-      <c r="NC18" s="25"/>
-      <c r="ND18" s="25"/>
-      <c r="NE18" s="25"/>
-      <c r="NF18" s="25"/>
-      <c r="NG18" s="25"/>
-      <c r="NH18" s="25"/>
-      <c r="NI18" s="25"/>
-      <c r="NJ18" s="25"/>
-      <c r="NK18" s="25"/>
-      <c r="NL18" s="25"/>
-      <c r="NM18" s="25"/>
-      <c r="NN18" s="25"/>
-      <c r="NO18" s="25"/>
-      <c r="NP18" s="25"/>
-      <c r="NQ18" s="25"/>
-      <c r="NR18" s="25"/>
-      <c r="NS18" s="25"/>
-      <c r="NT18" s="25"/>
-      <c r="NU18" s="25"/>
-      <c r="NV18" s="25"/>
-      <c r="NW18" s="25"/>
-      <c r="NX18" s="25"/>
-      <c r="NY18" s="25"/>
-      <c r="NZ18" s="25"/>
-      <c r="OA18" s="25"/>
-      <c r="OB18" s="25"/>
-      <c r="OC18" s="25"/>
-      <c r="OD18" s="25"/>
-      <c r="OE18" s="25"/>
-      <c r="OF18" s="25"/>
-      <c r="OG18" s="25"/>
-      <c r="OH18" s="25"/>
-      <c r="OI18" s="25"/>
-      <c r="OJ18" s="25"/>
-      <c r="OK18" s="25"/>
-      <c r="OL18" s="25"/>
-      <c r="OM18" s="25"/>
-      <c r="ON18" s="25"/>
-      <c r="OO18" s="25"/>
-      <c r="OP18" s="25"/>
-      <c r="OQ18" s="25"/>
-      <c r="OR18" s="25"/>
-      <c r="OS18" s="25"/>
-      <c r="OT18" s="25"/>
-      <c r="OU18" s="25"/>
-      <c r="OV18" s="25"/>
-      <c r="OW18" s="25"/>
-      <c r="OX18" s="25"/>
-      <c r="OY18" s="25"/>
-      <c r="OZ18" s="25"/>
-      <c r="PA18" s="25"/>
-      <c r="PB18" s="25"/>
-      <c r="PC18" s="25"/>
-      <c r="PD18" s="25"/>
-      <c r="PE18" s="25"/>
-      <c r="PF18" s="25"/>
-      <c r="PG18" s="25"/>
-      <c r="PH18" s="25"/>
-      <c r="PI18" s="25"/>
-      <c r="PJ18" s="25"/>
-      <c r="PK18" s="25"/>
-      <c r="PL18" s="25"/>
-      <c r="PM18" s="25"/>
-      <c r="PN18" s="25"/>
-      <c r="PO18" s="25"/>
-      <c r="PP18" s="25"/>
-      <c r="PQ18" s="25"/>
-      <c r="PR18" s="25"/>
-      <c r="PS18" s="25"/>
-      <c r="PT18" s="25"/>
-      <c r="PU18" s="25"/>
-      <c r="PV18" s="25"/>
-      <c r="PW18" s="25"/>
-      <c r="PX18" s="25"/>
-      <c r="PY18" s="25"/>
-      <c r="PZ18" s="25"/>
-      <c r="QA18" s="25"/>
-      <c r="QB18" s="25"/>
-      <c r="QC18" s="25"/>
-      <c r="QD18" s="25"/>
-      <c r="QE18" s="25"/>
-      <c r="QF18" s="25"/>
-      <c r="QG18" s="25"/>
-      <c r="QH18" s="25"/>
-      <c r="QI18" s="25"/>
-      <c r="QJ18" s="25"/>
-      <c r="QK18" s="25"/>
-      <c r="QL18" s="25"/>
-      <c r="QM18" s="25"/>
-      <c r="QN18" s="25"/>
-      <c r="QO18" s="25"/>
-      <c r="QP18" s="25"/>
-      <c r="QQ18" s="25"/>
-      <c r="QR18" s="25"/>
-      <c r="QS18" s="25"/>
-      <c r="QT18" s="25"/>
-      <c r="QU18" s="25"/>
-      <c r="QV18" s="25"/>
-      <c r="QW18" s="25"/>
-      <c r="QX18" s="25"/>
-      <c r="QY18" s="25"/>
-      <c r="QZ18" s="25"/>
-      <c r="RA18" s="25"/>
-      <c r="RB18" s="25"/>
-      <c r="RC18" s="25"/>
-      <c r="RD18" s="25"/>
-      <c r="RE18" s="25"/>
-      <c r="RF18" s="25"/>
-      <c r="RG18" s="25"/>
-      <c r="RH18" s="25"/>
-      <c r="RI18" s="25"/>
-      <c r="RJ18" s="25"/>
-      <c r="RK18" s="25"/>
-      <c r="RL18" s="25"/>
-      <c r="RM18" s="25"/>
-      <c r="RN18" s="25"/>
-      <c r="RO18" s="25"/>
-      <c r="RP18" s="25"/>
-      <c r="RQ18" s="25"/>
-      <c r="RR18" s="25"/>
-      <c r="RS18" s="25"/>
-      <c r="RT18" s="25"/>
-      <c r="RU18" s="25"/>
-      <c r="RV18" s="25"/>
-      <c r="RW18" s="25"/>
-      <c r="RX18" s="25"/>
-      <c r="RY18" s="25"/>
-      <c r="RZ18" s="25"/>
-      <c r="SA18" s="25"/>
-      <c r="SB18" s="25"/>
-      <c r="SC18" s="25"/>
-      <c r="SD18" s="25"/>
-      <c r="SE18" s="25"/>
-      <c r="SF18" s="25"/>
-      <c r="SG18" s="25"/>
-      <c r="SH18" s="25"/>
-      <c r="SI18" s="25"/>
-      <c r="SJ18" s="25"/>
-      <c r="SK18" s="25"/>
-      <c r="SL18" s="25"/>
-      <c r="SM18" s="25"/>
-      <c r="SN18" s="25"/>
-      <c r="SO18" s="25"/>
-      <c r="SP18" s="25"/>
-      <c r="SQ18" s="25"/>
-      <c r="SR18" s="25"/>
-      <c r="SS18" s="25"/>
-      <c r="ST18" s="25"/>
-      <c r="SU18" s="25"/>
-      <c r="SV18" s="25"/>
-      <c r="SW18" s="25"/>
-      <c r="SX18" s="25"/>
-      <c r="SY18" s="25"/>
-      <c r="SZ18" s="25"/>
-      <c r="TA18" s="25"/>
-      <c r="TB18" s="25"/>
-      <c r="TC18" s="25"/>
-      <c r="TD18" s="25"/>
-      <c r="TE18" s="25"/>
-      <c r="TF18" s="25"/>
-      <c r="TG18" s="25"/>
-      <c r="TH18" s="25"/>
-      <c r="TI18" s="25"/>
-      <c r="TJ18" s="25"/>
-      <c r="TK18" s="25"/>
-      <c r="TL18" s="25"/>
-      <c r="TM18" s="25"/>
-      <c r="TN18" s="25"/>
-      <c r="TO18" s="25"/>
-      <c r="TP18" s="25"/>
-      <c r="TQ18" s="25"/>
-      <c r="TR18" s="25"/>
-      <c r="TS18" s="25"/>
-      <c r="TT18" s="25"/>
-      <c r="TU18" s="25"/>
-      <c r="TV18" s="25"/>
-      <c r="TW18" s="25"/>
-      <c r="TX18" s="25"/>
-      <c r="TY18" s="25"/>
-      <c r="TZ18" s="25"/>
-      <c r="UA18" s="25"/>
-      <c r="UB18" s="25"/>
-      <c r="UC18" s="25"/>
-      <c r="UD18" s="25"/>
-      <c r="UE18" s="25"/>
-      <c r="UF18" s="25"/>
-      <c r="UG18" s="25"/>
-      <c r="UH18" s="25"/>
-      <c r="UI18" s="25"/>
-      <c r="UJ18" s="25"/>
-      <c r="UK18" s="25"/>
-      <c r="UL18" s="25"/>
-      <c r="UM18" s="25"/>
-      <c r="UN18" s="25"/>
-      <c r="UO18" s="25"/>
-      <c r="UP18" s="25"/>
-      <c r="UQ18" s="25"/>
-      <c r="UR18" s="25"/>
-      <c r="US18" s="25"/>
-      <c r="UT18" s="25"/>
-      <c r="UU18" s="25"/>
-      <c r="UV18" s="25"/>
-      <c r="UW18" s="25"/>
-      <c r="UX18" s="25"/>
-      <c r="UY18" s="25"/>
-      <c r="UZ18" s="25"/>
-      <c r="VA18" s="25"/>
-      <c r="VB18" s="25"/>
-      <c r="VC18" s="25"/>
-      <c r="VD18" s="25"/>
-      <c r="VE18" s="25"/>
-      <c r="VF18" s="25"/>
-      <c r="VG18" s="25"/>
-      <c r="VH18" s="25"/>
-      <c r="VI18" s="25"/>
-      <c r="VJ18" s="25"/>
-      <c r="VK18" s="25"/>
-      <c r="VL18" s="25"/>
-      <c r="VM18" s="25"/>
-      <c r="VN18" s="25"/>
-      <c r="VO18" s="25"/>
-      <c r="VP18" s="25"/>
-      <c r="VQ18" s="25"/>
-      <c r="VR18" s="25"/>
-      <c r="VS18" s="25"/>
-      <c r="VT18" s="25"/>
-      <c r="VU18" s="25"/>
-      <c r="VV18" s="25"/>
-      <c r="VW18" s="25"/>
-      <c r="VX18" s="25"/>
-      <c r="VY18" s="25"/>
-      <c r="VZ18" s="25"/>
-      <c r="WA18" s="25"/>
-      <c r="WB18" s="25"/>
-      <c r="WC18" s="25"/>
-      <c r="WD18" s="25"/>
-      <c r="WE18" s="25"/>
-      <c r="WF18" s="25"/>
-      <c r="WG18" s="25"/>
-      <c r="WH18" s="25"/>
-      <c r="WI18" s="25"/>
-      <c r="WJ18" s="25"/>
-      <c r="WK18" s="25"/>
-      <c r="WL18" s="25"/>
-      <c r="WM18" s="25"/>
-      <c r="WN18" s="25"/>
-      <c r="WO18" s="25"/>
-      <c r="WP18" s="25"/>
-      <c r="WQ18" s="25"/>
-      <c r="WR18" s="25"/>
-      <c r="WS18" s="25"/>
-      <c r="WT18" s="25"/>
-      <c r="WU18" s="25"/>
-      <c r="WV18" s="25"/>
-      <c r="WW18" s="25"/>
-      <c r="WX18" s="25"/>
-      <c r="WY18" s="25"/>
-      <c r="WZ18" s="25"/>
-      <c r="XA18" s="25"/>
-      <c r="XB18" s="25"/>
-      <c r="XC18" s="25"/>
-      <c r="XD18" s="25"/>
-      <c r="XE18" s="25"/>
-      <c r="XF18" s="25"/>
-      <c r="XG18" s="25"/>
-      <c r="XH18" s="25"/>
-      <c r="XI18" s="25"/>
-      <c r="XJ18" s="25"/>
-      <c r="XK18" s="25"/>
-      <c r="XL18" s="25"/>
-      <c r="XM18" s="25"/>
-      <c r="XN18" s="25"/>
-      <c r="XO18" s="25"/>
-      <c r="XP18" s="25"/>
-      <c r="XQ18" s="25"/>
-      <c r="XR18" s="25"/>
-      <c r="XS18" s="25"/>
-      <c r="XT18" s="25"/>
-      <c r="XU18" s="25"/>
-      <c r="XV18" s="25"/>
-      <c r="XW18" s="25"/>
-      <c r="XX18" s="25"/>
-      <c r="XY18" s="25"/>
-      <c r="XZ18" s="25"/>
-      <c r="YA18" s="25"/>
-      <c r="YB18" s="25"/>
-      <c r="YC18" s="25"/>
-      <c r="YD18" s="25"/>
-      <c r="YE18" s="25"/>
-      <c r="YF18" s="25"/>
-      <c r="YG18" s="25"/>
-      <c r="YH18" s="25"/>
-      <c r="YI18" s="25"/>
-      <c r="YJ18" s="25"/>
-      <c r="YK18" s="25"/>
-      <c r="YL18" s="25"/>
-      <c r="YM18" s="25"/>
-      <c r="YN18" s="25"/>
-      <c r="YO18" s="25"/>
-      <c r="YP18" s="25"/>
-      <c r="YQ18" s="25"/>
-      <c r="YR18" s="25"/>
-      <c r="YS18" s="25"/>
-      <c r="YT18" s="25"/>
-      <c r="YU18" s="25"/>
-      <c r="YV18" s="25"/>
-      <c r="YW18" s="25"/>
-      <c r="YX18" s="25"/>
-      <c r="YY18" s="25"/>
-      <c r="YZ18" s="25"/>
-      <c r="ZA18" s="25"/>
-      <c r="ZB18" s="25"/>
-      <c r="ZC18" s="25"/>
-      <c r="ZD18" s="25"/>
-      <c r="ZE18" s="25"/>
-      <c r="ZF18" s="25"/>
-      <c r="ZG18" s="25"/>
-      <c r="ZH18" s="25"/>
-      <c r="ZI18" s="25"/>
-      <c r="ZJ18" s="25"/>
-      <c r="ZK18" s="25"/>
-      <c r="ZL18" s="25"/>
-      <c r="ZM18" s="25"/>
-      <c r="ZN18" s="25"/>
-      <c r="ZO18" s="25"/>
-      <c r="ZP18" s="25"/>
-      <c r="ZQ18" s="25"/>
-      <c r="ZR18" s="25"/>
-      <c r="ZS18" s="25"/>
-      <c r="ZT18" s="25"/>
-      <c r="ZU18" s="25"/>
-      <c r="ZV18" s="25"/>
-      <c r="ZW18" s="25"/>
-      <c r="ZX18" s="25"/>
-      <c r="ZY18" s="25"/>
-      <c r="ZZ18" s="25"/>
-      <c r="AAA18" s="25"/>
-      <c r="AAB18" s="25"/>
-      <c r="AAC18" s="25"/>
-      <c r="AAD18" s="25"/>
-      <c r="AAE18" s="25"/>
-      <c r="AAF18" s="25"/>
-      <c r="AAG18" s="25"/>
-      <c r="AAH18" s="25"/>
-      <c r="AAI18" s="25"/>
-      <c r="AAJ18" s="25"/>
-      <c r="AAK18" s="25"/>
-      <c r="AAL18" s="25"/>
-      <c r="AAM18" s="25"/>
-      <c r="AAN18" s="25"/>
-      <c r="AAO18" s="25"/>
-      <c r="AAP18" s="25"/>
-      <c r="AAQ18" s="25"/>
-      <c r="AAR18" s="25"/>
-      <c r="AAS18" s="25"/>
-      <c r="AAT18" s="25"/>
-      <c r="AAU18" s="25"/>
-      <c r="AAV18" s="25"/>
-      <c r="AAW18" s="25"/>
-      <c r="AAX18" s="25"/>
-      <c r="AAY18" s="25"/>
-      <c r="AAZ18" s="25"/>
-      <c r="ABA18" s="25"/>
-      <c r="ABB18" s="25"/>
-      <c r="ABC18" s="25"/>
-      <c r="ABD18" s="25"/>
-      <c r="ABE18" s="25"/>
-      <c r="ABF18" s="25"/>
-      <c r="ABG18" s="25"/>
-      <c r="ABH18" s="25"/>
-      <c r="ABI18" s="25"/>
-      <c r="ABJ18" s="25"/>
-      <c r="ABK18" s="25"/>
-      <c r="ABL18" s="25"/>
-      <c r="ABM18" s="25"/>
-      <c r="ABN18" s="25"/>
-      <c r="ABO18" s="25"/>
-      <c r="ABP18" s="25"/>
-      <c r="ABQ18" s="25"/>
-      <c r="ABR18" s="25"/>
-      <c r="ABS18" s="25"/>
-      <c r="ABT18" s="25"/>
-      <c r="ABU18" s="25"/>
-      <c r="ABV18" s="25"/>
-      <c r="ABW18" s="25"/>
-      <c r="ABX18" s="25"/>
-      <c r="ABY18" s="25"/>
-      <c r="ABZ18" s="25"/>
-      <c r="ACA18" s="25"/>
-      <c r="ACB18" s="25"/>
-      <c r="ACC18" s="25"/>
-      <c r="ACD18" s="25"/>
-      <c r="ACE18" s="25"/>
-      <c r="ACF18" s="25"/>
-      <c r="ACG18" s="25"/>
-      <c r="ACH18" s="25"/>
-      <c r="ACI18" s="25"/>
-      <c r="ACJ18" s="25"/>
-      <c r="ACK18" s="25"/>
-      <c r="ACL18" s="25"/>
-      <c r="ACM18" s="25"/>
-      <c r="ACN18" s="25"/>
-      <c r="ACO18" s="25"/>
-      <c r="ACP18" s="25"/>
-      <c r="ACQ18" s="25"/>
-      <c r="ACR18" s="25"/>
-      <c r="ACS18" s="25"/>
-      <c r="ACT18" s="25"/>
-      <c r="ACU18" s="25"/>
-      <c r="ACV18" s="25"/>
-      <c r="ACW18" s="25"/>
-      <c r="ACX18" s="25"/>
-      <c r="ACY18" s="25"/>
-      <c r="ACZ18" s="25"/>
-      <c r="ADA18" s="25"/>
-      <c r="ADB18" s="25"/>
-      <c r="ADC18" s="25"/>
-      <c r="ADD18" s="25"/>
-      <c r="ADE18" s="25"/>
-      <c r="ADF18" s="25"/>
-      <c r="ADG18" s="25"/>
-      <c r="ADH18" s="25"/>
-      <c r="ADI18" s="25"/>
-      <c r="ADJ18" s="25"/>
-      <c r="ADK18" s="25"/>
-      <c r="ADL18" s="25"/>
-      <c r="ADM18" s="25"/>
-      <c r="ADN18" s="25"/>
-      <c r="ADO18" s="25"/>
-      <c r="ADP18" s="25"/>
-      <c r="ADQ18" s="25"/>
-      <c r="ADR18" s="25"/>
-      <c r="ADS18" s="25"/>
-      <c r="ADT18" s="25"/>
-      <c r="ADU18" s="25"/>
-      <c r="ADV18" s="25"/>
-      <c r="ADW18" s="25"/>
-      <c r="ADX18" s="25"/>
-      <c r="ADY18" s="25"/>
-      <c r="ADZ18" s="25"/>
-      <c r="AEA18" s="25"/>
-      <c r="AEB18" s="25"/>
-      <c r="AEC18" s="25"/>
-      <c r="AED18" s="25"/>
-      <c r="AEE18" s="25"/>
-      <c r="AEF18" s="25"/>
-      <c r="AEG18" s="25"/>
-      <c r="AEH18" s="25"/>
-      <c r="AEI18" s="25"/>
-      <c r="AEJ18" s="25"/>
-      <c r="AEK18" s="25"/>
-      <c r="AEL18" s="25"/>
-      <c r="AEM18" s="25"/>
-      <c r="AEN18" s="25"/>
-      <c r="AEO18" s="25"/>
-      <c r="AEP18" s="25"/>
-      <c r="AEQ18" s="25"/>
-      <c r="AER18" s="25"/>
-      <c r="AES18" s="25"/>
-      <c r="AET18" s="25"/>
-      <c r="AEU18" s="25"/>
-      <c r="AEV18" s="25"/>
-      <c r="AEW18" s="25"/>
-      <c r="AEX18" s="25"/>
-      <c r="AEY18" s="25"/>
-      <c r="AEZ18" s="25"/>
-      <c r="AFA18" s="25"/>
-      <c r="AFB18" s="25"/>
-      <c r="AFC18" s="25"/>
-      <c r="AFD18" s="25"/>
-      <c r="AFE18" s="25"/>
-      <c r="AFF18" s="25"/>
-      <c r="AFG18" s="25"/>
-      <c r="AFH18" s="25"/>
-      <c r="AFI18" s="25"/>
-      <c r="AFJ18" s="25"/>
-      <c r="AFK18" s="25"/>
-      <c r="AFL18" s="25"/>
-      <c r="AFM18" s="25"/>
-      <c r="AFN18" s="25"/>
-      <c r="AFO18" s="25"/>
-      <c r="AFP18" s="25"/>
-      <c r="AFQ18" s="25"/>
-      <c r="AFR18" s="25"/>
-      <c r="AFS18" s="25"/>
-      <c r="AFT18" s="25"/>
-      <c r="AFU18" s="25"/>
-      <c r="AFV18" s="25"/>
-      <c r="AFW18" s="25"/>
-      <c r="AFX18" s="25"/>
-      <c r="AFY18" s="25"/>
-      <c r="AFZ18" s="25"/>
-      <c r="AGA18" s="25"/>
-      <c r="AGB18" s="25"/>
-      <c r="AGC18" s="25"/>
-      <c r="AGD18" s="25"/>
-      <c r="AGE18" s="25"/>
-      <c r="AGF18" s="25"/>
-      <c r="AGG18" s="25"/>
-      <c r="AGH18" s="25"/>
-      <c r="AGI18" s="25"/>
-      <c r="AGJ18" s="25"/>
-      <c r="AGK18" s="25"/>
-      <c r="AGL18" s="25"/>
-      <c r="AGM18" s="25"/>
-      <c r="AGN18" s="25"/>
-      <c r="AGO18" s="25"/>
-      <c r="AGP18" s="25"/>
-      <c r="AGQ18" s="25"/>
-      <c r="AGR18" s="25"/>
-      <c r="AGS18" s="25"/>
-      <c r="AGT18" s="25"/>
-      <c r="AGU18" s="25"/>
-      <c r="AGV18" s="25"/>
-      <c r="AGW18" s="25"/>
-      <c r="AGX18" s="25"/>
-      <c r="AGY18" s="25"/>
-      <c r="AGZ18" s="25"/>
-      <c r="AHA18" s="25"/>
-      <c r="AHB18" s="25"/>
-      <c r="AHC18" s="25"/>
-      <c r="AHD18" s="25"/>
-      <c r="AHE18" s="25"/>
-      <c r="AHF18" s="25"/>
-      <c r="AHG18" s="25"/>
-      <c r="AHH18" s="25"/>
-      <c r="AHI18" s="25"/>
-      <c r="AHJ18" s="25"/>
-      <c r="AHK18" s="25"/>
-      <c r="AHL18" s="25"/>
-      <c r="AHM18" s="25"/>
-      <c r="AHN18" s="25"/>
-      <c r="AHO18" s="25"/>
-      <c r="AHP18" s="25"/>
-      <c r="AHQ18" s="25"/>
-      <c r="AHR18" s="25"/>
-      <c r="AHS18" s="25"/>
-      <c r="AHT18" s="25"/>
-      <c r="AHU18" s="25"/>
-      <c r="AHV18" s="25"/>
-      <c r="AHW18" s="25"/>
-      <c r="AHX18" s="25"/>
-      <c r="AHY18" s="25"/>
-      <c r="AHZ18" s="25"/>
-      <c r="AIA18" s="25"/>
-      <c r="AIB18" s="25"/>
-      <c r="AIC18" s="25"/>
-      <c r="AID18" s="25"/>
-      <c r="AIE18" s="25"/>
-      <c r="AIF18" s="25"/>
-      <c r="AIG18" s="25"/>
-      <c r="AIH18" s="25"/>
-      <c r="AII18" s="25"/>
-      <c r="AIJ18" s="25"/>
-      <c r="AIK18" s="25"/>
-      <c r="AIL18" s="25"/>
-      <c r="AIM18" s="25"/>
-      <c r="AIN18" s="25"/>
-      <c r="AIO18" s="25"/>
-      <c r="AIP18" s="25"/>
-      <c r="AIQ18" s="25"/>
-      <c r="AIR18" s="25"/>
-      <c r="AIS18" s="25"/>
-      <c r="AIT18" s="25"/>
-      <c r="AIU18" s="25"/>
-      <c r="AIV18" s="25"/>
-      <c r="AIW18" s="25"/>
-      <c r="AIX18" s="25"/>
-      <c r="AIY18" s="25"/>
-      <c r="AIZ18" s="25"/>
-      <c r="AJA18" s="25"/>
-      <c r="AJB18" s="25"/>
-      <c r="AJC18" s="25"/>
-      <c r="AJD18" s="25"/>
-      <c r="AJE18" s="25"/>
-      <c r="AJF18" s="25"/>
-      <c r="AJG18" s="25"/>
-      <c r="AJH18" s="25"/>
-      <c r="AJI18" s="25"/>
-      <c r="AJJ18" s="25"/>
-      <c r="AJK18" s="25"/>
-      <c r="AJL18" s="25"/>
-      <c r="AJM18" s="25"/>
-      <c r="AJN18" s="25"/>
-      <c r="AJO18" s="25"/>
-      <c r="AJP18" s="25"/>
-      <c r="AJQ18" s="25"/>
-      <c r="AJR18" s="25"/>
-      <c r="AJS18" s="25"/>
-      <c r="AJT18" s="25"/>
-      <c r="AJU18" s="25"/>
-      <c r="AJV18" s="25"/>
-      <c r="AJW18" s="25"/>
-      <c r="AJX18" s="25"/>
-      <c r="AJY18" s="25"/>
-      <c r="AJZ18" s="25"/>
-      <c r="AKA18" s="25"/>
-      <c r="AKB18" s="25"/>
-      <c r="AKC18" s="25"/>
-      <c r="AKD18" s="25"/>
-      <c r="AKE18" s="25"/>
-      <c r="AKF18" s="25"/>
-      <c r="AKG18" s="25"/>
-      <c r="AKH18" s="25"/>
-      <c r="AKI18" s="25"/>
-      <c r="AKJ18" s="25"/>
-      <c r="AKK18" s="25"/>
-      <c r="AKL18" s="25"/>
-      <c r="AKM18" s="25"/>
-      <c r="AKN18" s="25"/>
-      <c r="AKO18" s="25"/>
-      <c r="AKP18" s="25"/>
-      <c r="AKQ18" s="25"/>
-      <c r="AKR18" s="25"/>
-      <c r="AKS18" s="25"/>
-      <c r="AKT18" s="25"/>
-      <c r="AKU18" s="25"/>
-      <c r="AKV18" s="25"/>
-      <c r="AKW18" s="25"/>
-      <c r="AKX18" s="25"/>
-      <c r="AKY18" s="25"/>
-      <c r="AKZ18" s="25"/>
-      <c r="ALA18" s="25"/>
-      <c r="ALB18" s="25"/>
-      <c r="ALC18" s="25"/>
-      <c r="ALD18" s="25"/>
-      <c r="ALE18" s="25"/>
-      <c r="ALF18" s="25"/>
-      <c r="ALG18" s="25"/>
-      <c r="ALH18" s="25"/>
-      <c r="ALI18" s="25"/>
-      <c r="ALJ18" s="25"/>
-      <c r="ALK18" s="25"/>
-      <c r="ALL18" s="25"/>
-      <c r="ALM18" s="25"/>
-      <c r="ALN18" s="25"/>
-      <c r="ALO18" s="25"/>
-      <c r="ALP18" s="25"/>
-      <c r="ALQ18" s="25"/>
-      <c r="ALR18" s="25"/>
-      <c r="ALS18" s="25"/>
-      <c r="ALT18" s="25"/>
-      <c r="ALU18" s="25"/>
-      <c r="ALV18" s="25"/>
-      <c r="ALW18" s="25"/>
-      <c r="ALX18" s="25"/>
-      <c r="ALY18" s="25"/>
-      <c r="ALZ18" s="25"/>
-      <c r="AMA18" s="25"/>
-      <c r="AMB18" s="25"/>
-      <c r="AMC18" s="25"/>
-      <c r="AMD18" s="25"/>
-      <c r="AME18" s="25"/>
-      <c r="AMF18" s="25"/>
-      <c r="AMG18" s="25"/>
-      <c r="AMH18" s="25"/>
-      <c r="AMI18" s="25"/>
-      <c r="AMJ18" s="25"/>
-      <c r="AMK18" s="25"/>
-    </row>
-    <row r="19" spans="1:1025">
+      <c r="D17" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1025" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="24"/>
+      <c r="AS18" s="24"/>
+      <c r="AT18" s="24"/>
+      <c r="AU18" s="24"/>
+      <c r="AV18" s="24"/>
+      <c r="AW18" s="24"/>
+      <c r="AX18" s="24"/>
+      <c r="AY18" s="24"/>
+      <c r="AZ18" s="24"/>
+      <c r="BA18" s="24"/>
+      <c r="BB18" s="24"/>
+      <c r="BC18" s="24"/>
+      <c r="BD18" s="24"/>
+      <c r="BE18" s="24"/>
+      <c r="BF18" s="24"/>
+      <c r="BG18" s="24"/>
+      <c r="BH18" s="24"/>
+      <c r="BI18" s="24"/>
+      <c r="BJ18" s="24"/>
+      <c r="BK18" s="24"/>
+      <c r="BL18" s="24"/>
+      <c r="BM18" s="24"/>
+      <c r="BN18" s="24"/>
+      <c r="BO18" s="24"/>
+      <c r="BP18" s="24"/>
+      <c r="BQ18" s="24"/>
+      <c r="BR18" s="24"/>
+      <c r="BS18" s="24"/>
+      <c r="BT18" s="24"/>
+      <c r="BU18" s="24"/>
+      <c r="BV18" s="24"/>
+      <c r="BW18" s="24"/>
+      <c r="BX18" s="24"/>
+      <c r="BY18" s="24"/>
+      <c r="BZ18" s="24"/>
+      <c r="CA18" s="24"/>
+      <c r="CB18" s="24"/>
+      <c r="CC18" s="24"/>
+      <c r="CD18" s="24"/>
+      <c r="CE18" s="24"/>
+      <c r="CF18" s="24"/>
+      <c r="CG18" s="24"/>
+      <c r="CH18" s="24"/>
+      <c r="CI18" s="24"/>
+      <c r="CJ18" s="24"/>
+      <c r="CK18" s="24"/>
+      <c r="CL18" s="24"/>
+      <c r="CM18" s="24"/>
+      <c r="CN18" s="24"/>
+      <c r="CO18" s="24"/>
+      <c r="CP18" s="24"/>
+      <c r="CQ18" s="24"/>
+      <c r="CR18" s="24"/>
+      <c r="CS18" s="24"/>
+      <c r="CT18" s="24"/>
+      <c r="CU18" s="24"/>
+      <c r="CV18" s="24"/>
+      <c r="CW18" s="24"/>
+      <c r="CX18" s="24"/>
+      <c r="CY18" s="24"/>
+      <c r="CZ18" s="24"/>
+      <c r="DA18" s="24"/>
+      <c r="DB18" s="24"/>
+      <c r="DC18" s="24"/>
+      <c r="DD18" s="24"/>
+      <c r="DE18" s="24"/>
+      <c r="DF18" s="24"/>
+      <c r="DG18" s="24"/>
+      <c r="DH18" s="24"/>
+      <c r="DI18" s="24"/>
+      <c r="DJ18" s="24"/>
+      <c r="DK18" s="24"/>
+      <c r="DL18" s="24"/>
+      <c r="DM18" s="24"/>
+      <c r="DN18" s="24"/>
+      <c r="DO18" s="24"/>
+      <c r="DP18" s="24"/>
+      <c r="DQ18" s="24"/>
+      <c r="DR18" s="24"/>
+      <c r="DS18" s="24"/>
+      <c r="DT18" s="24"/>
+      <c r="DU18" s="24"/>
+      <c r="DV18" s="24"/>
+      <c r="DW18" s="24"/>
+      <c r="DX18" s="24"/>
+      <c r="DY18" s="24"/>
+      <c r="DZ18" s="24"/>
+      <c r="EA18" s="24"/>
+      <c r="EB18" s="24"/>
+      <c r="EC18" s="24"/>
+      <c r="ED18" s="24"/>
+      <c r="EE18" s="24"/>
+      <c r="EF18" s="24"/>
+      <c r="EG18" s="24"/>
+      <c r="EH18" s="24"/>
+      <c r="EI18" s="24"/>
+      <c r="EJ18" s="24"/>
+      <c r="EK18" s="24"/>
+      <c r="EL18" s="24"/>
+      <c r="EM18" s="24"/>
+      <c r="EN18" s="24"/>
+      <c r="EO18" s="24"/>
+      <c r="EP18" s="24"/>
+      <c r="EQ18" s="24"/>
+      <c r="ER18" s="24"/>
+      <c r="ES18" s="24"/>
+      <c r="ET18" s="24"/>
+      <c r="EU18" s="24"/>
+      <c r="EV18" s="24"/>
+      <c r="EW18" s="24"/>
+      <c r="EX18" s="24"/>
+      <c r="EY18" s="24"/>
+      <c r="EZ18" s="24"/>
+      <c r="FA18" s="24"/>
+      <c r="FB18" s="24"/>
+      <c r="FC18" s="24"/>
+      <c r="FD18" s="24"/>
+      <c r="FE18" s="24"/>
+      <c r="FF18" s="24"/>
+      <c r="FG18" s="24"/>
+      <c r="FH18" s="24"/>
+      <c r="FI18" s="24"/>
+      <c r="FJ18" s="24"/>
+      <c r="FK18" s="24"/>
+      <c r="FL18" s="24"/>
+      <c r="FM18" s="24"/>
+      <c r="FN18" s="24"/>
+      <c r="FO18" s="24"/>
+      <c r="FP18" s="24"/>
+      <c r="FQ18" s="24"/>
+      <c r="FR18" s="24"/>
+      <c r="FS18" s="24"/>
+      <c r="FT18" s="24"/>
+      <c r="FU18" s="24"/>
+      <c r="FV18" s="24"/>
+      <c r="FW18" s="24"/>
+      <c r="FX18" s="24"/>
+      <c r="FY18" s="24"/>
+      <c r="FZ18" s="24"/>
+      <c r="GA18" s="24"/>
+      <c r="GB18" s="24"/>
+      <c r="GC18" s="24"/>
+      <c r="GD18" s="24"/>
+      <c r="GE18" s="24"/>
+      <c r="GF18" s="24"/>
+      <c r="GG18" s="24"/>
+      <c r="GH18" s="24"/>
+      <c r="GI18" s="24"/>
+      <c r="GJ18" s="24"/>
+      <c r="GK18" s="24"/>
+      <c r="GL18" s="24"/>
+      <c r="GM18" s="24"/>
+      <c r="GN18" s="24"/>
+      <c r="GO18" s="24"/>
+      <c r="GP18" s="24"/>
+      <c r="GQ18" s="24"/>
+      <c r="GR18" s="24"/>
+      <c r="GS18" s="24"/>
+      <c r="GT18" s="24"/>
+      <c r="GU18" s="24"/>
+      <c r="GV18" s="24"/>
+      <c r="GW18" s="24"/>
+      <c r="GX18" s="24"/>
+      <c r="GY18" s="24"/>
+      <c r="GZ18" s="24"/>
+      <c r="HA18" s="24"/>
+      <c r="HB18" s="24"/>
+      <c r="HC18" s="24"/>
+      <c r="HD18" s="24"/>
+      <c r="HE18" s="24"/>
+      <c r="HF18" s="24"/>
+      <c r="HG18" s="24"/>
+      <c r="HH18" s="24"/>
+      <c r="HI18" s="24"/>
+      <c r="HJ18" s="24"/>
+      <c r="HK18" s="24"/>
+      <c r="HL18" s="24"/>
+      <c r="HM18" s="24"/>
+      <c r="HN18" s="24"/>
+      <c r="HO18" s="24"/>
+      <c r="HP18" s="24"/>
+      <c r="HQ18" s="24"/>
+      <c r="HR18" s="24"/>
+      <c r="HS18" s="24"/>
+      <c r="HT18" s="24"/>
+      <c r="HU18" s="24"/>
+      <c r="HV18" s="24"/>
+      <c r="HW18" s="24"/>
+      <c r="HX18" s="24"/>
+      <c r="HY18" s="24"/>
+      <c r="HZ18" s="24"/>
+      <c r="IA18" s="24"/>
+      <c r="IB18" s="24"/>
+      <c r="IC18" s="24"/>
+      <c r="ID18" s="24"/>
+      <c r="IE18" s="24"/>
+      <c r="IF18" s="24"/>
+      <c r="IG18" s="24"/>
+      <c r="IH18" s="24"/>
+      <c r="II18" s="24"/>
+      <c r="IJ18" s="24"/>
+      <c r="IK18" s="24"/>
+      <c r="IL18" s="24"/>
+      <c r="IM18" s="24"/>
+      <c r="IN18" s="24"/>
+      <c r="IO18" s="24"/>
+      <c r="IP18" s="24"/>
+      <c r="IQ18" s="24"/>
+      <c r="IR18" s="24"/>
+      <c r="IS18" s="24"/>
+      <c r="IT18" s="24"/>
+      <c r="IU18" s="24"/>
+      <c r="IV18" s="24"/>
+      <c r="IW18" s="24"/>
+      <c r="IX18" s="24"/>
+      <c r="IY18" s="24"/>
+      <c r="IZ18" s="24"/>
+      <c r="JA18" s="24"/>
+      <c r="JB18" s="24"/>
+      <c r="JC18" s="24"/>
+      <c r="JD18" s="24"/>
+      <c r="JE18" s="24"/>
+      <c r="JF18" s="24"/>
+      <c r="JG18" s="24"/>
+      <c r="JH18" s="24"/>
+      <c r="JI18" s="24"/>
+      <c r="JJ18" s="24"/>
+      <c r="JK18" s="24"/>
+      <c r="JL18" s="24"/>
+      <c r="JM18" s="24"/>
+      <c r="JN18" s="24"/>
+      <c r="JO18" s="24"/>
+      <c r="JP18" s="24"/>
+      <c r="JQ18" s="24"/>
+      <c r="JR18" s="24"/>
+      <c r="JS18" s="24"/>
+      <c r="JT18" s="24"/>
+      <c r="JU18" s="24"/>
+      <c r="JV18" s="24"/>
+      <c r="JW18" s="24"/>
+      <c r="JX18" s="24"/>
+      <c r="JY18" s="24"/>
+      <c r="JZ18" s="24"/>
+      <c r="KA18" s="24"/>
+      <c r="KB18" s="24"/>
+      <c r="KC18" s="24"/>
+      <c r="KD18" s="24"/>
+      <c r="KE18" s="24"/>
+      <c r="KF18" s="24"/>
+      <c r="KG18" s="24"/>
+      <c r="KH18" s="24"/>
+      <c r="KI18" s="24"/>
+      <c r="KJ18" s="24"/>
+      <c r="KK18" s="24"/>
+      <c r="KL18" s="24"/>
+      <c r="KM18" s="24"/>
+      <c r="KN18" s="24"/>
+      <c r="KO18" s="24"/>
+      <c r="KP18" s="24"/>
+      <c r="KQ18" s="24"/>
+      <c r="KR18" s="24"/>
+      <c r="KS18" s="24"/>
+      <c r="KT18" s="24"/>
+      <c r="KU18" s="24"/>
+      <c r="KV18" s="24"/>
+      <c r="KW18" s="24"/>
+      <c r="KX18" s="24"/>
+      <c r="KY18" s="24"/>
+      <c r="KZ18" s="24"/>
+      <c r="LA18" s="24"/>
+      <c r="LB18" s="24"/>
+      <c r="LC18" s="24"/>
+      <c r="LD18" s="24"/>
+      <c r="LE18" s="24"/>
+      <c r="LF18" s="24"/>
+      <c r="LG18" s="24"/>
+      <c r="LH18" s="24"/>
+      <c r="LI18" s="24"/>
+      <c r="LJ18" s="24"/>
+      <c r="LK18" s="24"/>
+      <c r="LL18" s="24"/>
+      <c r="LM18" s="24"/>
+      <c r="LN18" s="24"/>
+      <c r="LO18" s="24"/>
+      <c r="LP18" s="24"/>
+      <c r="LQ18" s="24"/>
+      <c r="LR18" s="24"/>
+      <c r="LS18" s="24"/>
+      <c r="LT18" s="24"/>
+      <c r="LU18" s="24"/>
+      <c r="LV18" s="24"/>
+      <c r="LW18" s="24"/>
+      <c r="LX18" s="24"/>
+      <c r="LY18" s="24"/>
+      <c r="LZ18" s="24"/>
+      <c r="MA18" s="24"/>
+      <c r="MB18" s="24"/>
+      <c r="MC18" s="24"/>
+      <c r="MD18" s="24"/>
+      <c r="ME18" s="24"/>
+      <c r="MF18" s="24"/>
+      <c r="MG18" s="24"/>
+      <c r="MH18" s="24"/>
+      <c r="MI18" s="24"/>
+      <c r="MJ18" s="24"/>
+      <c r="MK18" s="24"/>
+      <c r="ML18" s="24"/>
+      <c r="MM18" s="24"/>
+      <c r="MN18" s="24"/>
+      <c r="MO18" s="24"/>
+      <c r="MP18" s="24"/>
+      <c r="MQ18" s="24"/>
+      <c r="MR18" s="24"/>
+      <c r="MS18" s="24"/>
+      <c r="MT18" s="24"/>
+      <c r="MU18" s="24"/>
+      <c r="MV18" s="24"/>
+      <c r="MW18" s="24"/>
+      <c r="MX18" s="24"/>
+      <c r="MY18" s="24"/>
+      <c r="MZ18" s="24"/>
+      <c r="NA18" s="24"/>
+      <c r="NB18" s="24"/>
+      <c r="NC18" s="24"/>
+      <c r="ND18" s="24"/>
+      <c r="NE18" s="24"/>
+      <c r="NF18" s="24"/>
+      <c r="NG18" s="24"/>
+      <c r="NH18" s="24"/>
+      <c r="NI18" s="24"/>
+      <c r="NJ18" s="24"/>
+      <c r="NK18" s="24"/>
+      <c r="NL18" s="24"/>
+      <c r="NM18" s="24"/>
+      <c r="NN18" s="24"/>
+      <c r="NO18" s="24"/>
+      <c r="NP18" s="24"/>
+      <c r="NQ18" s="24"/>
+      <c r="NR18" s="24"/>
+      <c r="NS18" s="24"/>
+      <c r="NT18" s="24"/>
+      <c r="NU18" s="24"/>
+      <c r="NV18" s="24"/>
+      <c r="NW18" s="24"/>
+      <c r="NX18" s="24"/>
+      <c r="NY18" s="24"/>
+      <c r="NZ18" s="24"/>
+      <c r="OA18" s="24"/>
+      <c r="OB18" s="24"/>
+      <c r="OC18" s="24"/>
+      <c r="OD18" s="24"/>
+      <c r="OE18" s="24"/>
+      <c r="OF18" s="24"/>
+      <c r="OG18" s="24"/>
+      <c r="OH18" s="24"/>
+      <c r="OI18" s="24"/>
+      <c r="OJ18" s="24"/>
+      <c r="OK18" s="24"/>
+      <c r="OL18" s="24"/>
+      <c r="OM18" s="24"/>
+      <c r="ON18" s="24"/>
+      <c r="OO18" s="24"/>
+      <c r="OP18" s="24"/>
+      <c r="OQ18" s="24"/>
+      <c r="OR18" s="24"/>
+      <c r="OS18" s="24"/>
+      <c r="OT18" s="24"/>
+      <c r="OU18" s="24"/>
+      <c r="OV18" s="24"/>
+      <c r="OW18" s="24"/>
+      <c r="OX18" s="24"/>
+      <c r="OY18" s="24"/>
+      <c r="OZ18" s="24"/>
+      <c r="PA18" s="24"/>
+      <c r="PB18" s="24"/>
+      <c r="PC18" s="24"/>
+      <c r="PD18" s="24"/>
+      <c r="PE18" s="24"/>
+      <c r="PF18" s="24"/>
+      <c r="PG18" s="24"/>
+      <c r="PH18" s="24"/>
+      <c r="PI18" s="24"/>
+      <c r="PJ18" s="24"/>
+      <c r="PK18" s="24"/>
+      <c r="PL18" s="24"/>
+      <c r="PM18" s="24"/>
+      <c r="PN18" s="24"/>
+      <c r="PO18" s="24"/>
+      <c r="PP18" s="24"/>
+      <c r="PQ18" s="24"/>
+      <c r="PR18" s="24"/>
+      <c r="PS18" s="24"/>
+      <c r="PT18" s="24"/>
+      <c r="PU18" s="24"/>
+      <c r="PV18" s="24"/>
+      <c r="PW18" s="24"/>
+      <c r="PX18" s="24"/>
+      <c r="PY18" s="24"/>
+      <c r="PZ18" s="24"/>
+      <c r="QA18" s="24"/>
+      <c r="QB18" s="24"/>
+      <c r="QC18" s="24"/>
+      <c r="QD18" s="24"/>
+      <c r="QE18" s="24"/>
+      <c r="QF18" s="24"/>
+      <c r="QG18" s="24"/>
+      <c r="QH18" s="24"/>
+      <c r="QI18" s="24"/>
+      <c r="QJ18" s="24"/>
+      <c r="QK18" s="24"/>
+      <c r="QL18" s="24"/>
+      <c r="QM18" s="24"/>
+      <c r="QN18" s="24"/>
+      <c r="QO18" s="24"/>
+      <c r="QP18" s="24"/>
+      <c r="QQ18" s="24"/>
+      <c r="QR18" s="24"/>
+      <c r="QS18" s="24"/>
+      <c r="QT18" s="24"/>
+      <c r="QU18" s="24"/>
+      <c r="QV18" s="24"/>
+      <c r="QW18" s="24"/>
+      <c r="QX18" s="24"/>
+      <c r="QY18" s="24"/>
+      <c r="QZ18" s="24"/>
+      <c r="RA18" s="24"/>
+      <c r="RB18" s="24"/>
+      <c r="RC18" s="24"/>
+      <c r="RD18" s="24"/>
+      <c r="RE18" s="24"/>
+      <c r="RF18" s="24"/>
+      <c r="RG18" s="24"/>
+      <c r="RH18" s="24"/>
+      <c r="RI18" s="24"/>
+      <c r="RJ18" s="24"/>
+      <c r="RK18" s="24"/>
+      <c r="RL18" s="24"/>
+      <c r="RM18" s="24"/>
+      <c r="RN18" s="24"/>
+      <c r="RO18" s="24"/>
+      <c r="RP18" s="24"/>
+      <c r="RQ18" s="24"/>
+      <c r="RR18" s="24"/>
+      <c r="RS18" s="24"/>
+      <c r="RT18" s="24"/>
+      <c r="RU18" s="24"/>
+      <c r="RV18" s="24"/>
+      <c r="RW18" s="24"/>
+      <c r="RX18" s="24"/>
+      <c r="RY18" s="24"/>
+      <c r="RZ18" s="24"/>
+      <c r="SA18" s="24"/>
+      <c r="SB18" s="24"/>
+      <c r="SC18" s="24"/>
+      <c r="SD18" s="24"/>
+      <c r="SE18" s="24"/>
+      <c r="SF18" s="24"/>
+      <c r="SG18" s="24"/>
+      <c r="SH18" s="24"/>
+      <c r="SI18" s="24"/>
+      <c r="SJ18" s="24"/>
+      <c r="SK18" s="24"/>
+      <c r="SL18" s="24"/>
+      <c r="SM18" s="24"/>
+      <c r="SN18" s="24"/>
+      <c r="SO18" s="24"/>
+      <c r="SP18" s="24"/>
+      <c r="SQ18" s="24"/>
+      <c r="SR18" s="24"/>
+      <c r="SS18" s="24"/>
+      <c r="ST18" s="24"/>
+      <c r="SU18" s="24"/>
+      <c r="SV18" s="24"/>
+      <c r="SW18" s="24"/>
+      <c r="SX18" s="24"/>
+      <c r="SY18" s="24"/>
+      <c r="SZ18" s="24"/>
+      <c r="TA18" s="24"/>
+      <c r="TB18" s="24"/>
+      <c r="TC18" s="24"/>
+      <c r="TD18" s="24"/>
+      <c r="TE18" s="24"/>
+      <c r="TF18" s="24"/>
+      <c r="TG18" s="24"/>
+      <c r="TH18" s="24"/>
+      <c r="TI18" s="24"/>
+      <c r="TJ18" s="24"/>
+      <c r="TK18" s="24"/>
+      <c r="TL18" s="24"/>
+      <c r="TM18" s="24"/>
+      <c r="TN18" s="24"/>
+      <c r="TO18" s="24"/>
+      <c r="TP18" s="24"/>
+      <c r="TQ18" s="24"/>
+      <c r="TR18" s="24"/>
+      <c r="TS18" s="24"/>
+      <c r="TT18" s="24"/>
+      <c r="TU18" s="24"/>
+      <c r="TV18" s="24"/>
+      <c r="TW18" s="24"/>
+      <c r="TX18" s="24"/>
+      <c r="TY18" s="24"/>
+      <c r="TZ18" s="24"/>
+      <c r="UA18" s="24"/>
+      <c r="UB18" s="24"/>
+      <c r="UC18" s="24"/>
+      <c r="UD18" s="24"/>
+      <c r="UE18" s="24"/>
+      <c r="UF18" s="24"/>
+      <c r="UG18" s="24"/>
+      <c r="UH18" s="24"/>
+      <c r="UI18" s="24"/>
+      <c r="UJ18" s="24"/>
+      <c r="UK18" s="24"/>
+      <c r="UL18" s="24"/>
+      <c r="UM18" s="24"/>
+      <c r="UN18" s="24"/>
+      <c r="UO18" s="24"/>
+      <c r="UP18" s="24"/>
+      <c r="UQ18" s="24"/>
+      <c r="UR18" s="24"/>
+      <c r="US18" s="24"/>
+      <c r="UT18" s="24"/>
+      <c r="UU18" s="24"/>
+      <c r="UV18" s="24"/>
+      <c r="UW18" s="24"/>
+      <c r="UX18" s="24"/>
+      <c r="UY18" s="24"/>
+      <c r="UZ18" s="24"/>
+      <c r="VA18" s="24"/>
+      <c r="VB18" s="24"/>
+      <c r="VC18" s="24"/>
+      <c r="VD18" s="24"/>
+      <c r="VE18" s="24"/>
+      <c r="VF18" s="24"/>
+      <c r="VG18" s="24"/>
+      <c r="VH18" s="24"/>
+      <c r="VI18" s="24"/>
+      <c r="VJ18" s="24"/>
+      <c r="VK18" s="24"/>
+      <c r="VL18" s="24"/>
+      <c r="VM18" s="24"/>
+      <c r="VN18" s="24"/>
+      <c r="VO18" s="24"/>
+      <c r="VP18" s="24"/>
+      <c r="VQ18" s="24"/>
+      <c r="VR18" s="24"/>
+      <c r="VS18" s="24"/>
+      <c r="VT18" s="24"/>
+      <c r="VU18" s="24"/>
+      <c r="VV18" s="24"/>
+      <c r="VW18" s="24"/>
+      <c r="VX18" s="24"/>
+      <c r="VY18" s="24"/>
+      <c r="VZ18" s="24"/>
+      <c r="WA18" s="24"/>
+      <c r="WB18" s="24"/>
+      <c r="WC18" s="24"/>
+      <c r="WD18" s="24"/>
+      <c r="WE18" s="24"/>
+      <c r="WF18" s="24"/>
+      <c r="WG18" s="24"/>
+      <c r="WH18" s="24"/>
+      <c r="WI18" s="24"/>
+      <c r="WJ18" s="24"/>
+      <c r="WK18" s="24"/>
+      <c r="WL18" s="24"/>
+      <c r="WM18" s="24"/>
+      <c r="WN18" s="24"/>
+      <c r="WO18" s="24"/>
+      <c r="WP18" s="24"/>
+      <c r="WQ18" s="24"/>
+      <c r="WR18" s="24"/>
+      <c r="WS18" s="24"/>
+      <c r="WT18" s="24"/>
+      <c r="WU18" s="24"/>
+      <c r="WV18" s="24"/>
+      <c r="WW18" s="24"/>
+      <c r="WX18" s="24"/>
+      <c r="WY18" s="24"/>
+      <c r="WZ18" s="24"/>
+      <c r="XA18" s="24"/>
+      <c r="XB18" s="24"/>
+      <c r="XC18" s="24"/>
+      <c r="XD18" s="24"/>
+      <c r="XE18" s="24"/>
+      <c r="XF18" s="24"/>
+      <c r="XG18" s="24"/>
+      <c r="XH18" s="24"/>
+      <c r="XI18" s="24"/>
+      <c r="XJ18" s="24"/>
+      <c r="XK18" s="24"/>
+      <c r="XL18" s="24"/>
+      <c r="XM18" s="24"/>
+      <c r="XN18" s="24"/>
+      <c r="XO18" s="24"/>
+      <c r="XP18" s="24"/>
+      <c r="XQ18" s="24"/>
+      <c r="XR18" s="24"/>
+      <c r="XS18" s="24"/>
+      <c r="XT18" s="24"/>
+      <c r="XU18" s="24"/>
+      <c r="XV18" s="24"/>
+      <c r="XW18" s="24"/>
+      <c r="XX18" s="24"/>
+      <c r="XY18" s="24"/>
+      <c r="XZ18" s="24"/>
+      <c r="YA18" s="24"/>
+      <c r="YB18" s="24"/>
+      <c r="YC18" s="24"/>
+      <c r="YD18" s="24"/>
+      <c r="YE18" s="24"/>
+      <c r="YF18" s="24"/>
+      <c r="YG18" s="24"/>
+      <c r="YH18" s="24"/>
+      <c r="YI18" s="24"/>
+      <c r="YJ18" s="24"/>
+      <c r="YK18" s="24"/>
+      <c r="YL18" s="24"/>
+      <c r="YM18" s="24"/>
+      <c r="YN18" s="24"/>
+      <c r="YO18" s="24"/>
+      <c r="YP18" s="24"/>
+      <c r="YQ18" s="24"/>
+      <c r="YR18" s="24"/>
+      <c r="YS18" s="24"/>
+      <c r="YT18" s="24"/>
+      <c r="YU18" s="24"/>
+      <c r="YV18" s="24"/>
+      <c r="YW18" s="24"/>
+      <c r="YX18" s="24"/>
+      <c r="YY18" s="24"/>
+      <c r="YZ18" s="24"/>
+      <c r="ZA18" s="24"/>
+      <c r="ZB18" s="24"/>
+      <c r="ZC18" s="24"/>
+      <c r="ZD18" s="24"/>
+      <c r="ZE18" s="24"/>
+      <c r="ZF18" s="24"/>
+      <c r="ZG18" s="24"/>
+      <c r="ZH18" s="24"/>
+      <c r="ZI18" s="24"/>
+      <c r="ZJ18" s="24"/>
+      <c r="ZK18" s="24"/>
+      <c r="ZL18" s="24"/>
+      <c r="ZM18" s="24"/>
+      <c r="ZN18" s="24"/>
+      <c r="ZO18" s="24"/>
+      <c r="ZP18" s="24"/>
+      <c r="ZQ18" s="24"/>
+      <c r="ZR18" s="24"/>
+      <c r="ZS18" s="24"/>
+      <c r="ZT18" s="24"/>
+      <c r="ZU18" s="24"/>
+      <c r="ZV18" s="24"/>
+      <c r="ZW18" s="24"/>
+      <c r="ZX18" s="24"/>
+      <c r="ZY18" s="24"/>
+      <c r="ZZ18" s="24"/>
+      <c r="AAA18" s="24"/>
+      <c r="AAB18" s="24"/>
+      <c r="AAC18" s="24"/>
+      <c r="AAD18" s="24"/>
+      <c r="AAE18" s="24"/>
+      <c r="AAF18" s="24"/>
+      <c r="AAG18" s="24"/>
+      <c r="AAH18" s="24"/>
+      <c r="AAI18" s="24"/>
+      <c r="AAJ18" s="24"/>
+      <c r="AAK18" s="24"/>
+      <c r="AAL18" s="24"/>
+      <c r="AAM18" s="24"/>
+      <c r="AAN18" s="24"/>
+      <c r="AAO18" s="24"/>
+      <c r="AAP18" s="24"/>
+      <c r="AAQ18" s="24"/>
+      <c r="AAR18" s="24"/>
+      <c r="AAS18" s="24"/>
+      <c r="AAT18" s="24"/>
+      <c r="AAU18" s="24"/>
+      <c r="AAV18" s="24"/>
+      <c r="AAW18" s="24"/>
+      <c r="AAX18" s="24"/>
+      <c r="AAY18" s="24"/>
+      <c r="AAZ18" s="24"/>
+      <c r="ABA18" s="24"/>
+      <c r="ABB18" s="24"/>
+      <c r="ABC18" s="24"/>
+      <c r="ABD18" s="24"/>
+      <c r="ABE18" s="24"/>
+      <c r="ABF18" s="24"/>
+      <c r="ABG18" s="24"/>
+      <c r="ABH18" s="24"/>
+      <c r="ABI18" s="24"/>
+      <c r="ABJ18" s="24"/>
+      <c r="ABK18" s="24"/>
+      <c r="ABL18" s="24"/>
+      <c r="ABM18" s="24"/>
+      <c r="ABN18" s="24"/>
+      <c r="ABO18" s="24"/>
+      <c r="ABP18" s="24"/>
+      <c r="ABQ18" s="24"/>
+      <c r="ABR18" s="24"/>
+      <c r="ABS18" s="24"/>
+      <c r="ABT18" s="24"/>
+      <c r="ABU18" s="24"/>
+      <c r="ABV18" s="24"/>
+      <c r="ABW18" s="24"/>
+      <c r="ABX18" s="24"/>
+      <c r="ABY18" s="24"/>
+      <c r="ABZ18" s="24"/>
+      <c r="ACA18" s="24"/>
+      <c r="ACB18" s="24"/>
+      <c r="ACC18" s="24"/>
+      <c r="ACD18" s="24"/>
+      <c r="ACE18" s="24"/>
+      <c r="ACF18" s="24"/>
+      <c r="ACG18" s="24"/>
+      <c r="ACH18" s="24"/>
+      <c r="ACI18" s="24"/>
+      <c r="ACJ18" s="24"/>
+      <c r="ACK18" s="24"/>
+      <c r="ACL18" s="24"/>
+      <c r="ACM18" s="24"/>
+      <c r="ACN18" s="24"/>
+      <c r="ACO18" s="24"/>
+      <c r="ACP18" s="24"/>
+      <c r="ACQ18" s="24"/>
+      <c r="ACR18" s="24"/>
+      <c r="ACS18" s="24"/>
+      <c r="ACT18" s="24"/>
+      <c r="ACU18" s="24"/>
+      <c r="ACV18" s="24"/>
+      <c r="ACW18" s="24"/>
+      <c r="ACX18" s="24"/>
+      <c r="ACY18" s="24"/>
+      <c r="ACZ18" s="24"/>
+      <c r="ADA18" s="24"/>
+      <c r="ADB18" s="24"/>
+      <c r="ADC18" s="24"/>
+      <c r="ADD18" s="24"/>
+      <c r="ADE18" s="24"/>
+      <c r="ADF18" s="24"/>
+      <c r="ADG18" s="24"/>
+      <c r="ADH18" s="24"/>
+      <c r="ADI18" s="24"/>
+      <c r="ADJ18" s="24"/>
+      <c r="ADK18" s="24"/>
+      <c r="ADL18" s="24"/>
+      <c r="ADM18" s="24"/>
+      <c r="ADN18" s="24"/>
+      <c r="ADO18" s="24"/>
+      <c r="ADP18" s="24"/>
+      <c r="ADQ18" s="24"/>
+      <c r="ADR18" s="24"/>
+      <c r="ADS18" s="24"/>
+      <c r="ADT18" s="24"/>
+      <c r="ADU18" s="24"/>
+      <c r="ADV18" s="24"/>
+      <c r="ADW18" s="24"/>
+      <c r="ADX18" s="24"/>
+      <c r="ADY18" s="24"/>
+      <c r="ADZ18" s="24"/>
+      <c r="AEA18" s="24"/>
+      <c r="AEB18" s="24"/>
+      <c r="AEC18" s="24"/>
+      <c r="AED18" s="24"/>
+      <c r="AEE18" s="24"/>
+      <c r="AEF18" s="24"/>
+      <c r="AEG18" s="24"/>
+      <c r="AEH18" s="24"/>
+      <c r="AEI18" s="24"/>
+      <c r="AEJ18" s="24"/>
+      <c r="AEK18" s="24"/>
+      <c r="AEL18" s="24"/>
+      <c r="AEM18" s="24"/>
+      <c r="AEN18" s="24"/>
+      <c r="AEO18" s="24"/>
+      <c r="AEP18" s="24"/>
+      <c r="AEQ18" s="24"/>
+      <c r="AER18" s="24"/>
+      <c r="AES18" s="24"/>
+      <c r="AET18" s="24"/>
+      <c r="AEU18" s="24"/>
+      <c r="AEV18" s="24"/>
+      <c r="AEW18" s="24"/>
+      <c r="AEX18" s="24"/>
+      <c r="AEY18" s="24"/>
+      <c r="AEZ18" s="24"/>
+      <c r="AFA18" s="24"/>
+      <c r="AFB18" s="24"/>
+      <c r="AFC18" s="24"/>
+      <c r="AFD18" s="24"/>
+      <c r="AFE18" s="24"/>
+      <c r="AFF18" s="24"/>
+      <c r="AFG18" s="24"/>
+      <c r="AFH18" s="24"/>
+      <c r="AFI18" s="24"/>
+      <c r="AFJ18" s="24"/>
+      <c r="AFK18" s="24"/>
+      <c r="AFL18" s="24"/>
+      <c r="AFM18" s="24"/>
+      <c r="AFN18" s="24"/>
+      <c r="AFO18" s="24"/>
+      <c r="AFP18" s="24"/>
+      <c r="AFQ18" s="24"/>
+      <c r="AFR18" s="24"/>
+      <c r="AFS18" s="24"/>
+      <c r="AFT18" s="24"/>
+      <c r="AFU18" s="24"/>
+      <c r="AFV18" s="24"/>
+      <c r="AFW18" s="24"/>
+      <c r="AFX18" s="24"/>
+      <c r="AFY18" s="24"/>
+      <c r="AFZ18" s="24"/>
+      <c r="AGA18" s="24"/>
+      <c r="AGB18" s="24"/>
+      <c r="AGC18" s="24"/>
+      <c r="AGD18" s="24"/>
+      <c r="AGE18" s="24"/>
+      <c r="AGF18" s="24"/>
+      <c r="AGG18" s="24"/>
+      <c r="AGH18" s="24"/>
+      <c r="AGI18" s="24"/>
+      <c r="AGJ18" s="24"/>
+      <c r="AGK18" s="24"/>
+      <c r="AGL18" s="24"/>
+      <c r="AGM18" s="24"/>
+      <c r="AGN18" s="24"/>
+      <c r="AGO18" s="24"/>
+      <c r="AGP18" s="24"/>
+      <c r="AGQ18" s="24"/>
+      <c r="AGR18" s="24"/>
+      <c r="AGS18" s="24"/>
+      <c r="AGT18" s="24"/>
+      <c r="AGU18" s="24"/>
+      <c r="AGV18" s="24"/>
+      <c r="AGW18" s="24"/>
+      <c r="AGX18" s="24"/>
+      <c r="AGY18" s="24"/>
+      <c r="AGZ18" s="24"/>
+      <c r="AHA18" s="24"/>
+      <c r="AHB18" s="24"/>
+      <c r="AHC18" s="24"/>
+      <c r="AHD18" s="24"/>
+      <c r="AHE18" s="24"/>
+      <c r="AHF18" s="24"/>
+      <c r="AHG18" s="24"/>
+      <c r="AHH18" s="24"/>
+      <c r="AHI18" s="24"/>
+      <c r="AHJ18" s="24"/>
+      <c r="AHK18" s="24"/>
+      <c r="AHL18" s="24"/>
+      <c r="AHM18" s="24"/>
+      <c r="AHN18" s="24"/>
+      <c r="AHO18" s="24"/>
+      <c r="AHP18" s="24"/>
+      <c r="AHQ18" s="24"/>
+      <c r="AHR18" s="24"/>
+      <c r="AHS18" s="24"/>
+      <c r="AHT18" s="24"/>
+      <c r="AHU18" s="24"/>
+      <c r="AHV18" s="24"/>
+      <c r="AHW18" s="24"/>
+      <c r="AHX18" s="24"/>
+      <c r="AHY18" s="24"/>
+      <c r="AHZ18" s="24"/>
+      <c r="AIA18" s="24"/>
+      <c r="AIB18" s="24"/>
+      <c r="AIC18" s="24"/>
+      <c r="AID18" s="24"/>
+      <c r="AIE18" s="24"/>
+      <c r="AIF18" s="24"/>
+      <c r="AIG18" s="24"/>
+      <c r="AIH18" s="24"/>
+      <c r="AII18" s="24"/>
+      <c r="AIJ18" s="24"/>
+      <c r="AIK18" s="24"/>
+      <c r="AIL18" s="24"/>
+      <c r="AIM18" s="24"/>
+      <c r="AIN18" s="24"/>
+      <c r="AIO18" s="24"/>
+      <c r="AIP18" s="24"/>
+      <c r="AIQ18" s="24"/>
+      <c r="AIR18" s="24"/>
+      <c r="AIS18" s="24"/>
+      <c r="AIT18" s="24"/>
+      <c r="AIU18" s="24"/>
+      <c r="AIV18" s="24"/>
+      <c r="AIW18" s="24"/>
+      <c r="AIX18" s="24"/>
+      <c r="AIY18" s="24"/>
+      <c r="AIZ18" s="24"/>
+      <c r="AJA18" s="24"/>
+      <c r="AJB18" s="24"/>
+      <c r="AJC18" s="24"/>
+      <c r="AJD18" s="24"/>
+      <c r="AJE18" s="24"/>
+      <c r="AJF18" s="24"/>
+      <c r="AJG18" s="24"/>
+      <c r="AJH18" s="24"/>
+      <c r="AJI18" s="24"/>
+      <c r="AJJ18" s="24"/>
+      <c r="AJK18" s="24"/>
+      <c r="AJL18" s="24"/>
+      <c r="AJM18" s="24"/>
+      <c r="AJN18" s="24"/>
+      <c r="AJO18" s="24"/>
+      <c r="AJP18" s="24"/>
+      <c r="AJQ18" s="24"/>
+      <c r="AJR18" s="24"/>
+      <c r="AJS18" s="24"/>
+      <c r="AJT18" s="24"/>
+      <c r="AJU18" s="24"/>
+      <c r="AJV18" s="24"/>
+      <c r="AJW18" s="24"/>
+      <c r="AJX18" s="24"/>
+      <c r="AJY18" s="24"/>
+      <c r="AJZ18" s="24"/>
+      <c r="AKA18" s="24"/>
+      <c r="AKB18" s="24"/>
+      <c r="AKC18" s="24"/>
+      <c r="AKD18" s="24"/>
+      <c r="AKE18" s="24"/>
+      <c r="AKF18" s="24"/>
+      <c r="AKG18" s="24"/>
+      <c r="AKH18" s="24"/>
+      <c r="AKI18" s="24"/>
+      <c r="AKJ18" s="24"/>
+      <c r="AKK18" s="24"/>
+      <c r="AKL18" s="24"/>
+      <c r="AKM18" s="24"/>
+      <c r="AKN18" s="24"/>
+      <c r="AKO18" s="24"/>
+      <c r="AKP18" s="24"/>
+      <c r="AKQ18" s="24"/>
+      <c r="AKR18" s="24"/>
+      <c r="AKS18" s="24"/>
+      <c r="AKT18" s="24"/>
+      <c r="AKU18" s="24"/>
+      <c r="AKV18" s="24"/>
+      <c r="AKW18" s="24"/>
+      <c r="AKX18" s="24"/>
+      <c r="AKY18" s="24"/>
+      <c r="AKZ18" s="24"/>
+      <c r="ALA18" s="24"/>
+      <c r="ALB18" s="24"/>
+      <c r="ALC18" s="24"/>
+      <c r="ALD18" s="24"/>
+      <c r="ALE18" s="24"/>
+      <c r="ALF18" s="24"/>
+      <c r="ALG18" s="24"/>
+      <c r="ALH18" s="24"/>
+      <c r="ALI18" s="24"/>
+      <c r="ALJ18" s="24"/>
+      <c r="ALK18" s="24"/>
+      <c r="ALL18" s="24"/>
+      <c r="ALM18" s="24"/>
+      <c r="ALN18" s="24"/>
+      <c r="ALO18" s="24"/>
+      <c r="ALP18" s="24"/>
+      <c r="ALQ18" s="24"/>
+      <c r="ALR18" s="24"/>
+      <c r="ALS18" s="24"/>
+      <c r="ALT18" s="24"/>
+      <c r="ALU18" s="24"/>
+      <c r="ALV18" s="24"/>
+      <c r="ALW18" s="24"/>
+      <c r="ALX18" s="24"/>
+      <c r="ALY18" s="24"/>
+      <c r="ALZ18" s="24"/>
+      <c r="AMA18" s="24"/>
+      <c r="AMB18" s="24"/>
+      <c r="AMC18" s="24"/>
+      <c r="AMD18" s="24"/>
+      <c r="AME18" s="24"/>
+      <c r="AMF18" s="24"/>
+      <c r="AMG18" s="24"/>
+      <c r="AMH18" s="24"/>
+      <c r="AMI18" s="24"/>
+      <c r="AMJ18" s="24"/>
+      <c r="AMK18" s="24"/>
+    </row>
+    <row r="19" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>114</v>
       </c>
@@ -3270,17 +3265,17 @@
         <v>2</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="21"/>
+        <v>155</v>
+      </c>
+      <c r="F19" s="20"/>
       <c r="G19" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:1025">
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:1025">
+    <row r="20" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>115</v>
       </c>
@@ -3296,11 +3291,11 @@
       <c r="E21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="34">
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:1025">
+    <row r="22" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>115</v>
       </c>
@@ -3316,14 +3311,14 @@
       <c r="E22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="34">
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:1025">
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:1025">
+    <row r="23" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>135</v>
       </c>
@@ -3339,11 +3334,11 @@
       <c r="E24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="34">
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:1025">
+    <row r="25" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>135</v>
       </c>
@@ -3359,14 +3354,14 @@
       <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="34">
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:1025">
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:1025">
+    <row r="26" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>116</v>
       </c>
@@ -3377,16 +3372,16 @@
         <v>2</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="34">
         <v>17533</v>
       </c>
     </row>
-    <row r="28" spans="1:1025">
+    <row r="28" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -3397,16 +3392,16 @@
         <v>2</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="34">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:1025">
+    <row r="29" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>116</v>
       </c>
@@ -3417,16 +3412,16 @@
         <v>2</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="34">
         <v>2229</v>
       </c>
     </row>
-    <row r="30" spans="1:1025">
+    <row r="30" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -3437,16 +3432,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="34">
         <v>38502</v>
       </c>
     </row>
-    <row r="31" spans="1:1025">
+    <row r="31" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>116</v>
       </c>
@@ -3457,16 +3452,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1025">
+    <row r="32" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>116</v>
       </c>
@@ -3477,16 +3472,16 @@
         <v>2</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>116</v>
       </c>
@@ -3497,22 +3492,22 @@
         <v>2</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="34">
         <v>35</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="F34" s="35"/>
-    </row>
-    <row r="35" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>117</v>
       </c>
@@ -3523,16 +3518,16 @@
         <v>2</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="34">
         <v>17533</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>117</v>
       </c>
@@ -3543,16 +3538,16 @@
         <v>2</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="34">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>117</v>
       </c>
@@ -3563,16 +3558,16 @@
         <v>2</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="34">
         <v>2229</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>117</v>
       </c>
@@ -3583,16 +3578,16 @@
         <v>2</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="34">
         <v>38502</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>117</v>
       </c>
@@ -3603,16 +3598,16 @@
         <v>2</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>117</v>
       </c>
@@ -3623,16 +3618,16 @@
         <v>2</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F40" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>117</v>
       </c>
@@ -3643,22 +3638,22 @@
         <v>2</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="34">
         <v>35</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>118</v>
       </c>
@@ -3669,16 +3664,16 @@
         <v>2</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="F43" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>118</v>
       </c>
@@ -3689,16 +3684,16 @@
         <v>2</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="F44" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>118</v>
       </c>
@@ -3709,16 +3704,16 @@
         <v>2</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="34">
         <v>19.5</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>118</v>
       </c>
@@ -3729,16 +3724,16 @@
         <v>2</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="F46" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>118</v>
       </c>
@@ -3749,16 +3744,16 @@
         <v>2</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="F47" s="34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>118</v>
       </c>
@@ -3769,16 +3764,16 @@
         <v>2</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>118</v>
       </c>
@@ -3789,16 +3784,16 @@
         <v>2</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="4" customFormat="1">
+      <c r="F49" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>118</v>
       </c>
@@ -3809,19 +3804,19 @@
         <v>2</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F50" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F50" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="20"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>119</v>
       </c>
@@ -3832,16 +3827,16 @@
         <v>2</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>119</v>
       </c>
@@ -3852,16 +3847,16 @@
         <v>2</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>119</v>
       </c>
@@ -3872,16 +3867,16 @@
         <v>2</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="34">
         <v>17.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>119</v>
       </c>
@@ -3892,16 +3887,16 @@
         <v>2</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="F55" s="34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>119</v>
       </c>
@@ -3912,16 +3907,16 @@
         <v>2</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="F56" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>119</v>
       </c>
@@ -3932,16 +3927,16 @@
         <v>2</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="F57" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>119</v>
       </c>
@@ -3952,16 +3947,16 @@
         <v>2</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="F58" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>119</v>
       </c>
@@ -3972,19 +3967,19 @@
         <v>2</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="F59" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>120</v>
       </c>
@@ -4000,11 +3995,11 @@
       <c r="E61" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F61" s="34">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>120</v>
       </c>
@@ -4020,11 +4015,11 @@
       <c r="E62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="37">
+      <c r="F62" s="36">
         <v>1.9479999999999998E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>120</v>
       </c>
@@ -4040,11 +4035,11 @@
       <c r="E63" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="35">
+      <c r="F63" s="34">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>120</v>
       </c>
@@ -4060,11 +4055,11 @@
       <c r="E64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="34">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>120</v>
       </c>
@@ -4080,11 +4075,11 @@
       <c r="E65" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="35">
+      <c r="F65" s="34">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>120</v>
       </c>
@@ -4100,11 +4095,11 @@
       <c r="E66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="35">
+      <c r="F66" s="34">
         <v>8.9800000000000005E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>120</v>
       </c>
@@ -4120,14 +4115,14 @@
       <c r="E67" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F67" s="23">
         <v>124</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>120</v>
       </c>
@@ -4143,14 +4138,14 @@
       <c r="E68" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="37">
         <v>700</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>120</v>
       </c>
@@ -4166,14 +4161,14 @@
       <c r="E69" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="24">
+      <c r="F69" s="23">
         <v>1.0760000000000001</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>120</v>
       </c>
@@ -4189,17 +4184,17 @@
       <c r="E70" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="34">
         <v>3.9E-2</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>121</v>
       </c>
@@ -4210,16 +4205,16 @@
         <v>2</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="34">
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>121</v>
       </c>
@@ -4230,16 +4225,16 @@
         <v>2</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F73" s="35">
+      <c r="F73" s="34">
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>121</v>
       </c>
@@ -4250,16 +4245,16 @@
         <v>2</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="35">
+      <c r="F74" s="34">
         <v>1.2348249999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>121</v>
       </c>
@@ -4270,16 +4265,16 @@
         <v>2</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F75" s="35">
+      <c r="F75" s="34">
         <v>2.7807549999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>121</v>
       </c>
@@ -4290,16 +4285,16 @@
         <v>2</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F76" s="37">
+      <c r="F76" s="36">
         <v>-1.417839E-6</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>121</v>
       </c>
@@ -4310,16 +4305,16 @@
         <v>2</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F77" s="37">
+      <c r="F77" s="36">
         <v>1.9557449999999999E-7</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>121</v>
       </c>
@@ -4330,16 +4325,16 @@
         <v>2</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F78" s="35">
+      <c r="F78" s="34">
         <v>-62.007989999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>121</v>
       </c>
@@ -4350,16 +4345,16 @@
         <v>2</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F79" s="35">
+      <c r="F79" s="34">
         <v>52.563369999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>121</v>
       </c>
@@ -4370,16 +4365,16 @@
         <v>2</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F80" s="35">
+      <c r="F80" s="34">
         <v>-0.2229575</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>121</v>
       </c>
@@ -4390,16 +4385,16 @@
         <v>2</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F81" s="35">
+      <c r="F81" s="34">
         <v>525064.19999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>121</v>
       </c>
@@ -4410,16 +4405,16 @@
         <v>2</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F82" s="35">
+      <c r="F82" s="34">
         <v>2.7503639999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>121</v>
       </c>
@@ -4430,16 +4425,16 @@
         <v>2</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F83" s="35">
+      <c r="F83" s="34">
         <v>-0.25045070000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>121</v>
       </c>
@@ -4450,16 +4445,16 @@
         <v>2</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F84" s="35">
+      <c r="F84" s="34">
         <v>25.257000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>121</v>
       </c>
@@ -4470,16 +4465,16 @@
         <v>2</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F85" s="35">
+      <c r="F85" s="34">
         <v>-8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>121</v>
       </c>
@@ -4490,16 +4485,16 @@
         <v>2</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F86" s="35">
+      <c r="F86" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>121</v>
       </c>
@@ -4510,16 +4505,16 @@
         <v>2</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="37">
+      <c r="F87" s="36">
         <v>-2.824132E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>121</v>
       </c>
@@ -4530,16 +4525,16 @@
         <v>2</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="37">
+      <c r="F88" s="36">
         <v>4.8352109999999997E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>121</v>
       </c>
@@ -4550,16 +4545,16 @@
         <v>2</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F89" s="37">
+      <c r="F89" s="36">
         <v>-5.498281E-12</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>121</v>
       </c>
@@ -4570,16 +4565,16 @@
         <v>2</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F90" s="35">
+      <c r="F90" s="34">
         <v>-0.99114170000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
@@ -4590,16 +4585,16 @@
         <v>2</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F91" s="35">
+      <c r="F91" s="34">
         <v>0.13530790000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>121</v>
       </c>
@@ -4610,16 +4605,16 @@
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F92" s="37">
+      <c r="F92" s="36">
         <v>-3.2446530000000001E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>121</v>
       </c>
@@ -4630,16 +4625,16 @@
         <v>2</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F93" s="37">
+      <c r="F93" s="36">
         <v>4.1240859999999997E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>121</v>
       </c>
@@ -4650,16 +4645,16 @@
         <v>2</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F94" s="35">
+      <c r="F94" s="34">
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>121</v>
       </c>
@@ -4670,19 +4665,19 @@
         <v>2</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F95" s="35">
+      <c r="F95" s="34">
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="F96" s="21"/>
-    </row>
-    <row r="97" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="20"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>136</v>
       </c>
@@ -4693,16 +4688,16 @@
         <v>2</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F97" s="35">
+      <c r="F97" s="34">
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>136</v>
       </c>
@@ -4713,16 +4708,16 @@
         <v>2</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F98" s="35">
+      <c r="F98" s="34">
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>136</v>
       </c>
@@ -4733,16 +4728,16 @@
         <v>2</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F99" s="35">
+      <c r="F99" s="34">
         <v>1.2423359999999999E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>136</v>
       </c>
@@ -4753,16 +4748,16 @@
         <v>2</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F100" s="35">
+      <c r="F100" s="34">
         <v>2.7466730000000003E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>136</v>
       </c>
@@ -4773,16 +4768,16 @@
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F101" s="35">
+      <c r="F101" s="34">
         <v>-1.020928E-6</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>136</v>
       </c>
@@ -4793,16 +4788,16 @@
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F102" s="35">
+      <c r="F102" s="34">
         <v>1.792033E-7</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>136</v>
       </c>
@@ -4813,16 +4808,16 @@
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F103" s="35">
+      <c r="F103" s="34">
         <v>-64.12285</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>136</v>
       </c>
@@ -4833,16 +4828,16 @@
         <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F104" s="35">
+      <c r="F104" s="34">
         <v>51.84487</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>136</v>
       </c>
@@ -4853,16 +4848,16 @@
         <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F105" s="35">
+      <c r="F105" s="34">
         <v>-0.32500489999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>136</v>
       </c>
@@ -4873,16 +4868,16 @@
         <v>2</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F106" s="35">
+      <c r="F106" s="34">
         <v>524546</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>136</v>
       </c>
@@ -4893,16 +4888,16 @@
         <v>2</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F107" s="35">
+      <c r="F107" s="34">
         <v>54.827199999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>136</v>
       </c>
@@ -4913,16 +4908,16 @@
         <v>2</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F108" s="35">
+      <c r="F108" s="34">
         <v>-0.89864069999999996</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>136</v>
       </c>
@@ -4933,16 +4928,16 @@
         <v>2</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F109" s="35">
+      <c r="F109" s="34">
         <v>24.99</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>136</v>
       </c>
@@ -4953,16 +4948,16 @@
         <v>2</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F110" s="35">
+      <c r="F110" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>136</v>
       </c>
@@ -4973,16 +4968,16 @@
         <v>2</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F111" s="35">
+      <c r="F111" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>136</v>
       </c>
@@ -4993,16 +4988,16 @@
         <v>2</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F112" s="35">
+      <c r="F112" s="34">
         <v>2.0780409999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>136</v>
       </c>
@@ -5013,16 +5008,16 @@
         <v>2</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F113" s="35">
+      <c r="F113" s="34">
         <v>2.651886E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>136</v>
       </c>
@@ -5033,16 +5028,16 @@
         <v>2</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F114" s="35">
+      <c r="F114" s="34">
         <v>2.0655380000000002E-11</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>136</v>
       </c>
@@ -5053,16 +5048,16 @@
         <v>2</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F115" s="35">
+      <c r="F115" s="34">
         <v>-0.97833079999999994</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>136</v>
       </c>
@@ -5073,16 +5068,16 @@
         <v>2</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F116" s="35">
+      <c r="F116" s="34">
         <v>0.15585450000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>136</v>
       </c>
@@ -5093,16 +5088,16 @@
         <v>2</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F117" s="35">
+      <c r="F117" s="34">
         <v>-1.6055339999999999E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>136</v>
       </c>
@@ -5113,16 +5108,16 @@
         <v>2</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F118" s="35">
+      <c r="F118" s="34">
         <v>3.5184030000000003E-5</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>136</v>
       </c>
@@ -5133,16 +5128,16 @@
         <v>2</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F119" s="35">
+      <c r="F119" s="34">
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>136</v>
       </c>
@@ -5153,19 +5148,19 @@
         <v>2</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="35">
+      <c r="F120" s="34">
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="F121" s="21"/>
-    </row>
-    <row r="122" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="20"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>122</v>
       </c>
@@ -5181,11 +5176,11 @@
       <c r="E122" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F122" s="35">
+      <c r="F122" s="34">
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>122</v>
       </c>
@@ -5201,11 +5196,11 @@
       <c r="E123" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F123" s="35">
+      <c r="F123" s="34">
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
@@ -5221,14 +5216,14 @@
       <c r="E124" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F124" s="35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="F125" s="21"/>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="F124" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="20"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>123</v>
       </c>
@@ -5244,11 +5239,11 @@
       <c r="E126" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F126" s="35">
+      <c r="F126" s="34">
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>123</v>
       </c>
@@ -5264,11 +5259,11 @@
       <c r="E127" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F127" s="35">
+      <c r="F127" s="34">
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>123</v>
       </c>
@@ -5284,17 +5279,17 @@
       <c r="E128" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F128" s="35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="27" t="s">
-        <v>171</v>
+      <c r="F128" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>143</v>
@@ -5308,16 +5303,16 @@
       <c r="E130" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F130" s="41">
+      <c r="F130" s="40">
         <v>217</v>
       </c>
       <c r="G130" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="27" t="s">
-        <v>171</v>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>143</v>
@@ -5331,16 +5326,16 @@
       <c r="E131" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F131" s="41">
+      <c r="F131" s="40">
         <v>240</v>
       </c>
       <c r="G131" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="27" t="s">
-        <v>171</v>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>143</v>
@@ -5354,13 +5349,13 @@
       <c r="E132" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F132" s="35">
+      <c r="F132" s="34">
         <v>20.02</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="27" t="s">
-        <v>171</v>
+    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>143</v>
@@ -5374,13 +5369,13 @@
       <c r="E133" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F133" s="42" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="27" t="s">
-        <v>171</v>
+      <c r="F133" s="41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>143</v>
@@ -5394,13 +5389,13 @@
       <c r="E134" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F134" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="27" t="s">
-        <v>171</v>
+      <c r="F134" s="34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>143</v>
@@ -5414,13 +5409,13 @@
       <c r="E135" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F135" s="35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="27" t="s">
-        <v>171</v>
+      <c r="F135" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>143</v>
@@ -5434,17 +5429,17 @@
       <c r="E136" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F136" s="35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="27" t="s">
-        <v>172</v>
+      <c r="F136" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>143</v>
@@ -5458,13 +5453,13 @@
       <c r="E138" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F138" s="35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="27" t="s">
-        <v>172</v>
+      <c r="F138" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>143</v>
@@ -5478,13 +5473,13 @@
       <c r="E139" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F139" s="35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="27" t="s">
-        <v>172</v>
+      <c r="F139" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>143</v>
@@ -5498,14 +5493,14 @@
       <c r="E140" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F140" s="35" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="F141" s="21"/>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="F140" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F141" s="20"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>137</v>
       </c>
@@ -5521,14 +5516,14 @@
       <c r="E142" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F142" s="35">
+      <c r="F142" s="34">
         <v>442000</v>
       </c>
-      <c r="G142" s="35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="G142" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>137</v>
       </c>
@@ -5544,11 +5539,11 @@
       <c r="E143" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F143" s="35">
+      <c r="F143" s="34">
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>137</v>
       </c>
@@ -5564,11 +5559,11 @@
       <c r="E144" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F144" s="35">
+      <c r="F144" s="34">
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>137</v>
       </c>
@@ -5584,11 +5579,11 @@
       <c r="E145" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F145" s="35">
+      <c r="F145" s="34">
         <v>0.45</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>137</v>
       </c>
@@ -5604,11 +5599,11 @@
       <c r="E146" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F146" s="35">
+      <c r="F146" s="34">
         <v>0.45</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>137</v>
       </c>
@@ -5624,11 +5619,11 @@
       <c r="E147" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F147" s="35">
+      <c r="F147" s="34">
         <v>0.45</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>137</v>
       </c>
@@ -5644,14 +5639,14 @@
       <c r="E148" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F148" s="35">
+      <c r="F148" s="34">
         <v>0.45</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="F149" s="21"/>
-    </row>
-    <row r="150" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="20"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>134</v>
       </c>
@@ -5662,16 +5657,16 @@
         <v>2</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F150" s="35">
+      <c r="F150" s="34">
         <v>-4538.2809999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>134</v>
       </c>
@@ -5682,16 +5677,16 @@
         <v>2</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F151" s="35">
+      <c r="F151" s="34">
         <v>187.50919999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>134</v>
       </c>
@@ -5702,16 +5697,16 @@
         <v>2</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F152" s="35">
+      <c r="F152" s="34">
         <v>13630.6</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>134</v>
       </c>
@@ -5722,16 +5717,16 @@
         <v>2</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F153" s="35">
+      <c r="F153" s="34">
         <v>6.6158999999999996E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>134</v>
       </c>
@@ -5742,16 +5737,16 @@
         <v>2</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F154" s="35">
+      <c r="F154" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>134</v>
       </c>
@@ -5762,16 +5757,16 @@
         <v>2</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F155" s="40">
+      <c r="F155" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>134</v>
       </c>
@@ -5782,16 +5777,16 @@
         <v>2</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F156" s="35">
+      <c r="F156" s="34">
         <v>-0.38779999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>134</v>
       </c>
@@ -5802,16 +5797,16 @@
         <v>2</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F157" s="41">
+      <c r="F157" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>134</v>
       </c>
@@ -5822,16 +5817,16 @@
         <v>2</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F158" s="35">
+      <c r="F158" s="34">
         <v>30.357050000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>134</v>
       </c>
@@ -5842,16 +5837,16 @@
         <v>2</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F159" s="35">
+      <c r="F159" s="34">
         <v>1.2041630000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>134</v>
       </c>
@@ -5862,16 +5857,16 @@
         <v>2</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F160" s="35">
+      <c r="F160" s="34">
         <v>48.019649999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>134</v>
       </c>
@@ -5882,16 +5877,16 @@
         <v>2</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F161" s="35">
+      <c r="F161" s="34">
         <v>112.5149</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>134</v>
       </c>
@@ -5902,16 +5897,16 @@
         <v>2</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F162" s="35">
+      <c r="F162" s="34">
         <v>5.77224</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>134</v>
       </c>
@@ -5922,16 +5917,16 @@
         <v>2</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F163" s="35">
+      <c r="F163" s="34">
         <v>-3999.241</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>134</v>
       </c>
@@ -5942,16 +5937,16 @@
         <v>2</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F164" s="35">
+      <c r="F164" s="34">
         <v>-10753.24</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>134</v>
       </c>
@@ -5962,16 +5957,16 @@
         <v>2</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F165" s="35">
+      <c r="F165" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>134</v>
       </c>
@@ -5982,16 +5977,16 @@
         <v>2</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F166" s="35">
+      <c r="F166" s="34">
         <v>838.8</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>134</v>
       </c>
@@ -6002,19 +5997,19 @@
         <v>2</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F167" s="35">
+      <c r="F167" s="34">
         <v>12582.9</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
-      <c r="F168" s="21"/>
-    </row>
-    <row r="169" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="20"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>124</v>
       </c>
@@ -6025,16 +6020,16 @@
         <v>2</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F169" s="35">
+      <c r="F169" s="34">
         <v>-3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>124</v>
       </c>
@@ -6045,16 +6040,16 @@
         <v>2</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F170" s="35">
+      <c r="F170" s="34">
         <v>1.0528999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>124</v>
       </c>
@@ -6065,16 +6060,16 @@
         <v>2</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F171" s="35">
+      <c r="F171" s="34">
         <v>-2.1103999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>124</v>
       </c>
@@ -6085,16 +6080,16 @@
         <v>2</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F172" s="35">
+      <c r="F172" s="34">
         <v>14.5807</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>124</v>
       </c>
@@ -6105,16 +6100,16 @@
         <v>2</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F173" s="35">
+      <c r="F173" s="34">
         <v>19706</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>124</v>
       </c>
@@ -6125,16 +6120,16 @@
         <v>2</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F174" s="35">
+      <c r="F174" s="34">
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>124</v>
       </c>
@@ -6145,16 +6140,16 @@
         <v>2</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F175" s="35">
+      <c r="F175" s="34">
         <v>3073</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>124</v>
       </c>
@@ -6165,36 +6160,36 @@
         <v>2</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F176" s="35">
+      <c r="F176" s="34">
         <v>44327</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
-      <c r="F177" s="21"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B178" s="6" t="s">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F177" s="20"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G178" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H178" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C178" s="6">
+      <c r="I178" s="6">
         <v>2</v>
       </c>
-      <c r="D178" s="30">
+      <c r="J178" s="29">
         <v>55077</v>
       </c>
-      <c r="G178" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="M178" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>125</v>
       </c>
@@ -6204,14 +6199,14 @@
       <c r="C180" s="6">
         <v>2</v>
       </c>
-      <c r="D180" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="G180" s="21" t="s">
+      <c r="D180" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G180" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>126</v>
       </c>
@@ -6221,14 +6216,14 @@
       <c r="C181" s="6">
         <v>2</v>
       </c>
-      <c r="D181" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G181" s="21" t="s">
+      <c r="D181" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G181" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>127</v>
       </c>
@@ -6238,18 +6233,18 @@
       <c r="C182" s="6">
         <v>2</v>
       </c>
-      <c r="D182" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G182" s="21" t="s">
+      <c r="D182" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G182" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="D183" s="21"/>
-      <c r="G183" s="21"/>
-    </row>
-    <row r="184" spans="1:7">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D183" s="20"/>
+      <c r="G183" s="20"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>128</v>
       </c>
@@ -6259,14 +6254,14 @@
       <c r="C184" s="6">
         <v>2</v>
       </c>
-      <c r="D184" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G184" s="21" t="s">
+      <c r="D184" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G184" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>129</v>
       </c>
@@ -6276,14 +6271,14 @@
       <c r="C185" s="6">
         <v>2</v>
       </c>
-      <c r="D185" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G185" s="21" t="s">
+      <c r="D185" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G185" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>130</v>
       </c>
@@ -6293,14 +6288,14 @@
       <c r="C186" s="6">
         <v>2</v>
       </c>
-      <c r="D186" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G186" s="21" t="s">
+      <c r="D186" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G186" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>131</v>
       </c>
@@ -6310,14 +6305,14 @@
       <c r="C187" s="6">
         <v>2</v>
       </c>
-      <c r="D187" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G187" s="21" t="s">
+      <c r="D187" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G187" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>132</v>
       </c>
@@ -6327,14 +6322,14 @@
       <c r="C188" s="6">
         <v>2</v>
       </c>
-      <c r="D188" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G188" s="21" t="s">
+      <c r="D188" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G188" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>133</v>
       </c>
@@ -6344,14 +6339,14 @@
       <c r="C189" s="6">
         <v>2</v>
       </c>
-      <c r="D189" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G189" s="21" t="s">
+      <c r="D189" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G189" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G190" s="7"/>
     </row>
   </sheetData>
@@ -6373,16 +6368,16 @@
       <selection activeCell="A80" sqref="A80:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="9.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="9.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="33" max="39" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="25" width="9.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="9.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="33" max="39" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" customFormat="1">
+    <row r="1" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-7.4231000000000005E-2</v>
       </c>
@@ -6498,7 +6493,7 @@
         <v>4.8051000000000003E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" customFormat="1">
+    <row r="2" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-6.2197000000000002E-2</v>
       </c>
@@ -6614,7 +6609,7 @@
         <v>3.7963999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" customFormat="1">
+    <row r="3" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-4.8746999999999999E-2</v>
       </c>
@@ -6730,7 +6725,7 @@
         <v>2.6828999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" customFormat="1">
+    <row r="4" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-3.3734E-2</v>
       </c>
@@ -6846,7 +6841,7 @@
         <v>1.6361000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" customFormat="1">
+    <row r="5" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-2.1427000000000002E-2</v>
       </c>
@@ -6962,7 +6957,7 @@
         <v>9.587E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" customFormat="1">
+    <row r="6" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.5106E-2</v>
       </c>
@@ -7078,7 +7073,7 @@
         <v>5.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" customFormat="1">
+    <row r="7" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1.0352999999999999E-2</v>
       </c>
@@ -7194,7 +7189,7 @@
         <v>2.189E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" customFormat="1">
+    <row r="8" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-7.5449999999999996E-3</v>
       </c>
@@ -7310,7 +7305,7 @@
         <v>1.2960000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" customFormat="1">
+    <row r="9" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-5.5979999999999997E-3</v>
       </c>
@@ -7426,7 +7421,7 @@
         <v>3.8900000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:38" customFormat="1">
+    <row r="10" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4.0619999999999996E-3</v>
       </c>
@@ -7542,7 +7537,7 @@
         <v>-2.2900000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" customFormat="1">
+    <row r="11" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-3.2460000000000002E-3</v>
       </c>
@@ -7658,7 +7653,7 @@
         <v>-5.5599999999999996E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:38" customFormat="1">
+    <row r="12" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2.4589999999999998E-3</v>
       </c>
@@ -7774,7 +7769,7 @@
         <v>-5.5699999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:38" customFormat="1">
+    <row r="13" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1.676E-3</v>
       </c>
@@ -7890,7 +7885,7 @@
         <v>-7.0799999999999997E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:38" customFormat="1">
+    <row r="14" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.165E-3</v>
       </c>
@@ -8006,7 +8001,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:38" customFormat="1">
+    <row r="15" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.4369999999999999E-3</v>
       </c>
@@ -8122,7 +8117,7 @@
         <v>-7.3700000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" customFormat="1">
+    <row r="16" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-8.3500000000000002E-4</v>
       </c>
@@ -8238,7 +8233,7 @@
         <v>-7.2999999999999996E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" customFormat="1">
+    <row r="17" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-8.7299999999999997E-4</v>
       </c>
@@ -8354,7 +8349,7 @@
         <v>-8.0800000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:38" customFormat="1">
+    <row r="18" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-9.3400000000000004E-4</v>
       </c>
@@ -8470,7 +8465,7 @@
         <v>-7.0100000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:38" customFormat="1">
+    <row r="19" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-4.3300000000000001E-4</v>
       </c>
@@ -8586,7 +8581,7 @@
         <v>-6.3299999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:38" customFormat="1">
+    <row r="20" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-6.1799999999999995E-4</v>
       </c>
@@ -8702,7 +8697,7 @@
         <v>-5.5900000000000004E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:38" customFormat="1">
+    <row r="21" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-2.7500000000000002E-4</v>
       </c>
@@ -8818,7 +8813,7 @@
         <v>-5.4299999999999997E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:38" customFormat="1">
+    <row r="22" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-5.0100000000000003E-4</v>
       </c>
@@ -8934,7 +8929,7 @@
         <v>-5.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" customFormat="1">
+    <row r="23" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-2.42E-4</v>
       </c>
@@ -9050,7 +9045,7 @@
         <v>-5.0199999999999995E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" customFormat="1">
+    <row r="24" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.37E-4</v>
       </c>
@@ -9166,7 +9161,7 @@
         <v>-5.31E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:38" customFormat="1">
+    <row r="25" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.8799999999999999E-4</v>
       </c>
@@ -9282,7 +9277,7 @@
         <v>-4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:38" customFormat="1">
+    <row r="26" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8.0000000000000007E-5</v>
       </c>
@@ -9398,7 +9393,7 @@
         <v>-4.73E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:38" customFormat="1">
+    <row r="27" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.12E-4</v>
       </c>
@@ -9514,7 +9509,7 @@
         <v>-4.95E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:38" customFormat="1">
+    <row r="28" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-9.2999999999999997E-5</v>
       </c>
@@ -9630,7 +9625,7 @@
         <v>-4.9799999999999996E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:38" customFormat="1">
+    <row r="29" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.4300000000000001E-4</v>
       </c>
@@ -9746,7 +9741,7 @@
         <v>-5.0199999999999995E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:38" customFormat="1">
+    <row r="30" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-2.3000000000000001E-4</v>
       </c>
@@ -9862,7 +9857,7 @@
         <v>-4.55E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:38" customFormat="1">
+    <row r="31" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-2.5099999999999998E-4</v>
       </c>
@@ -9978,7 +9973,7 @@
         <v>-4.4900000000000002E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:38" customFormat="1">
+    <row r="32" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.21E-4</v>
       </c>
@@ -10094,7 +10089,7 @@
         <v>-4.15E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:38" customFormat="1">
+    <row r="33" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-4.46E-4</v>
       </c>
@@ -10210,7 +10205,7 @@
         <v>-3.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:38" customFormat="1">
+    <row r="34" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-6.2500000000000001E-4</v>
       </c>
@@ -10326,7 +10321,7 @@
         <v>-4.4700000000000002E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:38" customFormat="1">
+    <row r="35" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-3.79E-4</v>
       </c>
@@ -10442,7 +10437,7 @@
         <v>-4.3600000000000003E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:38" customFormat="1">
+    <row r="36" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.8599999999999999E-4</v>
       </c>
@@ -10558,7 +10553,7 @@
         <v>-4.37E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:38" customFormat="1">
+    <row r="37" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-9.1000000000000003E-5</v>
       </c>
@@ -10674,7 +10669,7 @@
         <v>-5.1500000000000005E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:38" customFormat="1">
+    <row r="38" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6.6000000000000005E-5</v>
       </c>
@@ -10790,7 +10785,7 @@
         <v>-5.1900000000000004E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38" customFormat="1">
+    <row r="39" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.6200000000000001E-4</v>
       </c>
@@ -10906,7 +10901,7 @@
         <v>-5.4600000000000004E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:38" customFormat="1">
+    <row r="40" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3.8000000000000002E-4</v>
       </c>
@@ -11022,7 +11017,7 @@
         <v>-6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:38" customFormat="1">
+    <row r="41" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6.9800000000000005E-4</v>
       </c>
@@ -11138,7 +11133,7 @@
         <v>-5.9400000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38" customFormat="1">
+    <row r="42" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9.3899999999999995E-4</v>
       </c>
@@ -11254,7 +11249,7 @@
         <v>-6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:38" customFormat="1">
+    <row r="43" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.194E-3</v>
       </c>
@@ -11370,7 +11365,7 @@
         <v>-6.6500000000000001E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:38" customFormat="1">
+    <row r="44" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.4729999999999999E-3</v>
       </c>
@@ -11486,7 +11481,7 @@
         <v>-6.29E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:38" customFormat="1">
+    <row r="45" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.059E-3</v>
       </c>
@@ -11602,7 +11597,7 @@
         <v>-7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:38" customFormat="1">
+    <row r="46" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8.6300000000000005E-4</v>
       </c>
@@ -11718,7 +11713,7 @@
         <v>-6.69E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:38" customFormat="1">
+    <row r="47" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.7399999999999997E-4</v>
       </c>
@@ -11834,7 +11829,7 @@
         <v>-6.1899999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:38" customFormat="1">
+    <row r="48" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.0699999999999996E-4</v>
       </c>
@@ -11950,7 +11945,7 @@
         <v>-5.8100000000000003E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:38" customFormat="1">
+    <row r="49" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.1399999999999998E-4</v>
       </c>
@@ -12066,7 +12061,7 @@
         <v>-4.7699999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:38" customFormat="1">
+    <row r="50" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.31E-4</v>
       </c>
@@ -12182,7 +12177,7 @@
         <v>-4.26E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:38" customFormat="1">
+    <row r="51" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8.8999999999999995E-5</v>
       </c>
@@ -12298,7 +12293,7 @@
         <v>-3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:38" customFormat="1">
+    <row r="52" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-9.6000000000000002E-5</v>
       </c>
@@ -12414,7 +12409,7 @@
         <v>-4.44E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:38" customFormat="1">
+    <row r="53" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-1.3100000000000001E-4</v>
       </c>
@@ -12530,7 +12525,7 @@
         <v>-4.0999999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:38" customFormat="1">
+    <row r="54" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.5999999999999998E-4</v>
       </c>
@@ -12646,7 +12641,7 @@
         <v>-3.97E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:38" customFormat="1">
+    <row r="55" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-4.06E-4</v>
       </c>
@@ -12762,7 +12757,7 @@
         <v>-3.1199999999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38" customFormat="1">
+    <row r="56" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-4.4299999999999998E-4</v>
       </c>
@@ -12878,7 +12873,7 @@
         <v>-2.7399999999999999E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38" customFormat="1">
+    <row r="57" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-5.9500000000000004E-4</v>
       </c>
@@ -12994,7 +12989,7 @@
         <v>-2.7799999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38" customFormat="1">
+    <row r="58" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-7.54E-4</v>
       </c>
@@ -13110,7 +13105,7 @@
         <v>-2.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38" customFormat="1">
+    <row r="59" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-9.6599999999999995E-4</v>
       </c>
@@ -13226,7 +13221,7 @@
         <v>-2.4800000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:38" customFormat="1">
+    <row r="60" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.0219999999999999E-3</v>
       </c>
@@ -13342,7 +13337,7 @@
         <v>-2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:38" customFormat="1">
+    <row r="61" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.176E-3</v>
       </c>
@@ -13458,7 +13453,7 @@
         <v>-2.5500000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:38" customFormat="1">
+    <row r="62" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.253E-3</v>
       </c>
@@ -13574,7 +13569,7 @@
         <v>-2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:38" customFormat="1">
+    <row r="63" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.4250000000000001E-3</v>
       </c>
@@ -13690,7 +13685,7 @@
         <v>-2.4499999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:38" customFormat="1">
+    <row r="64" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.5790000000000001E-3</v>
       </c>
@@ -13806,7 +13801,7 @@
         <v>-2.9399999999999999E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" customFormat="1">
+    <row r="65" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.7129999999999999E-3</v>
       </c>
@@ -13922,7 +13917,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" customFormat="1">
+    <row r="66" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.8760000000000001E-3</v>
       </c>
@@ -14038,7 +14033,7 @@
         <v>-3.5199999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" customFormat="1">
+    <row r="67" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.854E-3</v>
       </c>
@@ -14154,7 +14149,7 @@
         <v>-3.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" customFormat="1">
+    <row r="68" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.6609999999999999E-3</v>
       </c>
@@ -14270,7 +14265,7 @@
         <v>-4.5300000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39" customFormat="1">
+    <row r="69" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1.4189999999999999E-3</v>
       </c>
@@ -14386,7 +14381,7 @@
         <v>-5.44E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39" customFormat="1">
+    <row r="70" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.2390000000000001E-3</v>
       </c>
@@ -14502,7 +14497,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39" customFormat="1">
+    <row r="71" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-8.9599999999999999E-4</v>
       </c>
@@ -14618,7 +14613,7 @@
         <v>-7.18E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39" customFormat="1">
+    <row r="72" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-8.43E-4</v>
       </c>
@@ -14734,7 +14729,7 @@
         <v>-7.9600000000000005E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:39" customFormat="1">
+    <row r="73" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-8.7000000000000001E-4</v>
       </c>
@@ -14850,7 +14845,7 @@
         <v>-8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39" customFormat="1">
+    <row r="74" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-9.6900000000000003E-4</v>
       </c>
@@ -14966,7 +14961,7 @@
         <v>-8.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39" customFormat="1">
+    <row r="75" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.0280000000000001E-3</v>
       </c>
@@ -15082,7 +15077,7 @@
         <v>-8.8900000000000003E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" customFormat="1">
+    <row r="76" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.0089999999999999E-3</v>
       </c>
@@ -15198,7 +15193,7 @@
         <v>-8.9099999999999997E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39" customFormat="1">
+    <row r="77" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-1.165E-3</v>
       </c>
@@ -15314,7 +15309,7 @@
         <v>-8.3299999999999997E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" customFormat="1">
+    <row r="78" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-1.6329999999999999E-3</v>
       </c>
@@ -15430,7 +15425,7 @@
         <v>-9.01E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39" customFormat="1">
+    <row r="79" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-1.933E-3</v>
       </c>
@@ -15546,87 +15541,87 @@
         <v>-7.6599999999999997E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
-      <c r="R80" s="23"/>
-      <c r="S80" s="23"/>
-      <c r="T80" s="23"/>
-      <c r="U80" s="23"/>
-      <c r="V80" s="23"/>
-      <c r="W80" s="23"/>
-      <c r="X80" s="23"/>
-      <c r="Y80" s="23"/>
-      <c r="Z80" s="23"/>
-      <c r="AA80" s="23"/>
-      <c r="AB80" s="23"/>
-      <c r="AC80" s="23"/>
-      <c r="AD80" s="23"/>
-      <c r="AE80" s="23"/>
-      <c r="AF80" s="23"/>
-      <c r="AG80" s="23"/>
-      <c r="AH80" s="23"/>
-      <c r="AI80" s="23"/>
-      <c r="AJ80" s="23"/>
-      <c r="AK80" s="23"/>
-      <c r="AL80" s="23"/>
-      <c r="AM80" s="23"/>
-    </row>
-    <row r="81" spans="1:39">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="23"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="23"/>
-      <c r="S81" s="23"/>
-      <c r="T81" s="23"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="23"/>
-      <c r="W81" s="23"/>
-      <c r="X81" s="23"/>
-      <c r="Y81" s="23"/>
-      <c r="Z81" s="23"/>
-      <c r="AA81" s="23"/>
-      <c r="AB81" s="23"/>
-      <c r="AC81" s="23"/>
-      <c r="AD81" s="23"/>
-      <c r="AE81" s="23"/>
-      <c r="AF81" s="23"/>
-      <c r="AG81" s="23"/>
-      <c r="AH81" s="23"/>
-      <c r="AI81" s="23"/>
-      <c r="AJ81" s="23"/>
-      <c r="AK81" s="23"/>
-      <c r="AL81" s="23"/>
-      <c r="AM81" s="23"/>
+    <row r="80" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="22"/>
+      <c r="U80" s="22"/>
+      <c r="V80" s="22"/>
+      <c r="W80" s="22"/>
+      <c r="X80" s="22"/>
+      <c r="Y80" s="22"/>
+      <c r="Z80" s="22"/>
+      <c r="AA80" s="22"/>
+      <c r="AB80" s="22"/>
+      <c r="AC80" s="22"/>
+      <c r="AD80" s="22"/>
+      <c r="AE80" s="22"/>
+      <c r="AF80" s="22"/>
+      <c r="AG80" s="22"/>
+      <c r="AH80" s="22"/>
+      <c r="AI80" s="22"/>
+      <c r="AJ80" s="22"/>
+      <c r="AK80" s="22"/>
+      <c r="AL80" s="22"/>
+      <c r="AM80" s="22"/>
+    </row>
+    <row r="81" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="22"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="X81" s="22"/>
+      <c r="Y81" s="22"/>
+      <c r="Z81" s="22"/>
+      <c r="AA81" s="22"/>
+      <c r="AB81" s="22"/>
+      <c r="AC81" s="22"/>
+      <c r="AD81" s="22"/>
+      <c r="AE81" s="22"/>
+      <c r="AF81" s="22"/>
+      <c r="AG81" s="22"/>
+      <c r="AH81" s="22"/>
+      <c r="AI81" s="22"/>
+      <c r="AJ81" s="22"/>
+      <c r="AK81" s="22"/>
+      <c r="AL81" s="22"/>
+      <c r="AM81" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15646,14 +15641,14 @@
       <selection sqref="A1:XFD88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="25" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="39" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="39" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.4035000000000001E-2</v>
       </c>
@@ -15769,7 +15764,7 @@
         <v>-8.2710000000000006E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.681E-2</v>
       </c>
@@ -15885,7 +15880,7 @@
         <v>-6.6369999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-2.5888000000000001E-2</v>
       </c>
@@ -16001,7 +15996,7 @@
         <v>-4.3210000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-2.7458E-2</v>
       </c>
@@ -16117,7 +16112,7 @@
         <v>-2.63E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-2.6446999999999998E-2</v>
       </c>
@@ -16233,7 +16228,7 @@
         <v>-1.58E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-2.5444000000000001E-2</v>
       </c>
@@ -16349,7 +16344,7 @@
         <v>-5.1500000000000005E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2.5446E-2</v>
       </c>
@@ -16465,7 +16460,7 @@
         <v>4.3199999999999998E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.3514E-2</v>
       </c>
@@ -16581,7 +16576,7 @@
         <v>3.48E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-2.2970999999999998E-2</v>
       </c>
@@ -16697,7 +16692,7 @@
         <v>-1.66E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.1361000000000002E-2</v>
       </c>
@@ -16813,7 +16808,7 @@
         <v>1.379E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1.9064000000000001E-2</v>
       </c>
@@ -16929,7 +16924,7 @@
         <v>1.389E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1.8873999999999998E-2</v>
       </c>
@@ -17045,7 +17040,7 @@
         <v>-6.7000000000000002E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1.8090999999999999E-2</v>
       </c>
@@ -17161,7 +17156,7 @@
         <v>1.016E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.5424E-2</v>
       </c>
@@ -17277,7 +17272,7 @@
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.5226E-2</v>
       </c>
@@ -17393,7 +17388,7 @@
         <v>1.9599999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.5327E-2</v>
       </c>
@@ -17509,7 +17504,7 @@
         <v>-4.9600000000000002E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.2775999999999999E-2</v>
       </c>
@@ -17625,7 +17620,7 @@
         <v>1.6019999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.1665999999999999E-2</v>
       </c>
@@ -17741,7 +17736,7 @@
         <v>1.704E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.1795999999999999E-2</v>
       </c>
@@ -17857,7 +17852,7 @@
         <v>-9.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.2052999999999999E-2</v>
       </c>
@@ -17973,7 +17968,7 @@
         <v>-3.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1.0407E-2</v>
       </c>
@@ -18089,7 +18084,7 @@
         <v>1.931E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-9.4420000000000007E-3</v>
       </c>
@@ -18205,7 +18200,7 @@
         <v>1.0629999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.008E-2</v>
       </c>
@@ -18321,7 +18316,7 @@
         <v>-1.3929999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.0071E-2</v>
       </c>
@@ -18437,7 +18432,7 @@
         <v>-6.2E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-7.8630000000000002E-3</v>
       </c>
@@ -18553,7 +18548,7 @@
         <v>1.99E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -18669,7 +18664,7 @@
         <v>1.2049999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-8.3379999999999999E-3</v>
       </c>
@@ -18785,7 +18780,7 @@
         <v>-1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8.3309999999999999E-3</v>
       </c>
@@ -18901,7 +18896,7 @@
         <v>-1.735E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-6.5030000000000001E-3</v>
       </c>
@@ -19017,7 +19012,7 @@
         <v>1.469E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-4.9020000000000001E-3</v>
       </c>
@@ -19133,7 +19128,7 @@
         <v>1.8630000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5.2709999999999996E-3</v>
       </c>
@@ -19249,7 +19244,7 @@
         <v>-1.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-6.1450000000000003E-3</v>
       </c>
@@ -19365,7 +19360,7 @@
         <v>-3.0850000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-5.1019999999999998E-3</v>
       </c>
@@ -19481,7 +19476,7 @@
         <v>-1.07E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2.5929999999999998E-3</v>
       </c>
@@ -19597,7 +19592,7 @@
         <v>1.9380000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.4790000000000001E-3</v>
       </c>
@@ -19713,7 +19708,7 @@
         <v>1.341E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.8580000000000001E-3</v>
       </c>
@@ -19829,7 +19824,7 @@
         <v>-2.065E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-2.6419999999999998E-3</v>
       </c>
@@ -19945,7 +19940,7 @@
         <v>-3.9150000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.8240000000000001E-3</v>
       </c>
@@ -20061,7 +20056,7 @@
         <v>-2.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.86E-4</v>
       </c>
@@ -20177,7 +20172,7 @@
         <v>1.111E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.0939999999999999E-3</v>
       </c>
@@ -20293,7 +20288,7 @@
         <v>2.2369999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.9859999999999999E-3</v>
       </c>
@@ -20409,7 +20404,7 @@
         <v>-3.28E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7.2400000000000003E-4</v>
       </c>
@@ -20525,7 +20520,7 @@
         <v>-3.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-2.4499999999999999E-4</v>
       </c>
@@ -20641,7 +20636,7 @@
         <v>-4.6020000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.65E-4</v>
       </c>
@@ -20757,7 +20752,7 @@
         <v>-2.5349999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.7100000000000002E-3</v>
       </c>
@@ -20873,7 +20868,7 @@
         <v>2.7099999999999997E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4.3480000000000003E-3</v>
       </c>
@@ -20989,7 +20984,7 @@
         <v>1.9610000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4.2509999999999996E-3</v>
       </c>
@@ -21105,7 +21100,7 @@
         <v>-1.9000000000000001E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.64E-3</v>
       </c>
@@ -21221,7 +21216,7 @@
         <v>-3.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.467E-3</v>
       </c>
@@ -21337,7 +21332,7 @@
         <v>-5.8459999999999996E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.572E-3</v>
       </c>
@@ -21453,7 +21448,7 @@
         <v>-3.98E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3.0560000000000001E-3</v>
       </c>
@@ -21569,7 +21564,7 @@
         <v>-2.9399999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4.8129999999999996E-3</v>
       </c>
@@ -21685,7 +21680,7 @@
         <v>2.1540000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.0800000000000003E-3</v>
       </c>
@@ -21801,7 +21796,7 @@
         <v>1.189E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3.6779999999999998E-3</v>
       </c>
@@ -21917,7 +21912,7 @@
         <v>-2.5600000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.802E-3</v>
       </c>
@@ -22033,7 +22028,7 @@
         <v>-5.7460000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.023E-3</v>
       </c>
@@ -22149,7 +22144,7 @@
         <v>-5.9280000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.9189999999999999E-3</v>
       </c>
@@ -22265,7 +22260,7 @@
         <v>-2.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3.9249999999999997E-3</v>
       </c>
@@ -22381,7 +22376,7 @@
         <v>7.5199999999999996E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.326E-3</v>
       </c>
@@ -22497,7 +22492,7 @@
         <v>2.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.4219999999999997E-3</v>
       </c>
@@ -22613,7 +22608,7 @@
         <v>1.0510000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3.9500000000000004E-3</v>
       </c>
@@ -22729,7 +22724,7 @@
         <v>-2.4840000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.5639999999999999E-3</v>
       </c>
@@ -22845,7 +22840,7 @@
         <v>-5.8079999999999998E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.4660000000000001E-3</v>
       </c>
@@ -22961,7 +22956,7 @@
         <v>-6.8580000000000004E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.9780000000000002E-3</v>
       </c>
@@ -23077,7 +23072,7 @@
         <v>-4.9020000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3.5630000000000002E-3</v>
       </c>
@@ -23193,7 +23188,7 @@
         <v>-1.4369999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5.2139999999999999E-3</v>
       </c>
@@ -23309,7 +23304,7 @@
         <v>1.508E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6.2519999999999997E-3</v>
       </c>
@@ -23425,7 +23420,7 @@
         <v>2.4759999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6.5970000000000004E-3</v>
       </c>
@@ -23541,7 +23536,7 @@
         <v>7.3999999999999999E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5.4990000000000004E-3</v>
       </c>
@@ -23657,7 +23652,7 @@
         <v>-2.2620000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4.1910000000000003E-3</v>
       </c>
@@ -23773,7 +23768,7 @@
         <v>-5.6379999999999998E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2.8349999999999998E-3</v>
       </c>
@@ -23889,7 +23884,7 @@
         <v>-7.6E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.8249999999999998E-3</v>
       </c>
@@ -24005,7 +24000,7 @@
         <v>-7.1180000000000002E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3.5379999999999999E-3</v>
       </c>
@@ -24121,7 +24116,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.6810000000000003E-3</v>
       </c>
@@ -24237,7 +24232,7 @@
         <v>-2.1199999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6.5960000000000003E-3</v>
       </c>
@@ -24353,7 +24348,7 @@
         <v>1.054E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7.4570000000000001E-3</v>
       </c>
@@ -24469,7 +24464,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7.8019999999999999E-3</v>
       </c>
@@ -24585,7 +24580,7 @@
         <v>1.843E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7.4700000000000001E-3</v>
       </c>
@@ -24701,7 +24696,7 @@
         <v>2.3900000000000001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5.6820000000000004E-3</v>
       </c>
@@ -24833,13 +24828,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="25" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="37" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-7.0541999999999994E-2</v>
       </c>
@@ -24958,7 +24953,7 @@
         <v>3.9338999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-6.1710000000000001E-2</v>
       </c>
@@ -25077,7 +25072,7 @@
         <v>3.1438000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-5.1657000000000002E-2</v>
       </c>
@@ -25196,7 +25191,7 @@
         <v>2.2648999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.2470000000000001E-2</v>
       </c>
@@ -25315,7 +25310,7 @@
         <v>1.6175999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-3.6156000000000001E-2</v>
       </c>
@@ -25434,7 +25429,7 @@
         <v>1.1268E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-3.1882000000000001E-2</v>
       </c>
@@ -25553,7 +25548,7 @@
         <v>8.0440000000000008E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2.8917999999999999E-2</v>
       </c>
@@ -25672,7 +25667,7 @@
         <v>6.202E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.7085999999999999E-2</v>
       </c>
@@ -25791,7 +25786,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-2.6117999999999999E-2</v>
       </c>
@@ -25910,7 +25905,7 @@
         <v>4.5310000000000003E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.5648000000000001E-2</v>
       </c>
@@ -26029,7 +26024,7 @@
         <v>4.0600000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2.4656999999999998E-2</v>
       </c>
@@ -26148,7 +26143,7 @@
         <v>3.607E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2.3689000000000002E-2</v>
       </c>
@@ -26267,7 +26262,7 @@
         <v>3.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-2.2862E-2</v>
       </c>
@@ -26386,7 +26381,7 @@
         <v>3.522E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-2.1724E-2</v>
       </c>
@@ -26505,7 +26500,7 @@
         <v>3.5360000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-2.0976000000000002E-2</v>
       </c>
@@ -26624,7 +26619,7 @@
         <v>3.3549999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-2.0219000000000001E-2</v>
       </c>
@@ -26743,7 +26738,7 @@
         <v>3.2690000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.9193999999999999E-2</v>
       </c>
@@ -26862,7 +26857,7 @@
         <v>3.2780000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.8610000000000002E-2</v>
       </c>
@@ -26981,7 +26976,7 @@
         <v>3.2820000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.7901E-2</v>
       </c>
@@ -27100,7 +27095,7 @@
         <v>3.235E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.7233999999999999E-2</v>
       </c>
@@ -27219,7 +27214,7 @@
         <v>3.153E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1.6774000000000001E-2</v>
       </c>
@@ -27338,7 +27333,7 @@
         <v>2.9520000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.6125E-2</v>
       </c>
@@ -27457,7 +27452,7 @@
         <v>2.9759999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.5709999999999998E-2</v>
       </c>
@@ -27576,7 +27571,7 @@
         <v>2.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.519E-2</v>
       </c>
@@ -27695,7 +27690,7 @@
         <v>2.8779999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.4655E-2</v>
       </c>
@@ -27814,7 +27809,7 @@
         <v>2.8310000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.4319999999999999E-2</v>
       </c>
@@ -27933,7 +27928,7 @@
         <v>2.7810000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.3875999999999999E-2</v>
       </c>
@@ -28052,7 +28047,7 @@
         <v>2.6830000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.3398999999999999E-2</v>
       </c>
@@ -28171,7 +28166,7 @@
         <v>2.5079999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.3069000000000001E-2</v>
       </c>
@@ -28290,7 +28285,7 @@
         <v>2.4190000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.2503E-2</v>
       </c>
@@ -28409,7 +28404,7 @@
         <v>2.3349999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.2284E-2</v>
       </c>
@@ -28528,7 +28523,7 @@
         <v>2.2550000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.1789000000000001E-2</v>
       </c>
@@ -28647,7 +28642,7 @@
         <v>2.2529999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.1291000000000001E-2</v>
       </c>
@@ -28766,7 +28761,7 @@
         <v>2.091E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.0972000000000001E-2</v>
       </c>
@@ -28885,7 +28880,7 @@
         <v>1.9859999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.0677000000000001E-2</v>
       </c>
@@ -29004,7 +28999,7 @@
         <v>1.854E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.0300999999999999E-2</v>
       </c>
@@ -29123,7 +29118,7 @@
         <v>1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.0075000000000001E-2</v>
       </c>
@@ -29242,7 +29237,7 @@
         <v>1.609E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-9.7300000000000008E-3</v>
       </c>
@@ -29361,7 +29356,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-9.3600000000000003E-3</v>
       </c>
@@ -29480,7 +29475,7 @@
         <v>1.4430000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-9.4730000000000005E-3</v>
       </c>
@@ -29599,7 +29594,7 @@
         <v>1.4220000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-9.5709999999999996E-3</v>
       </c>
@@ -29718,7 +29713,7 @@
         <v>1.366E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-9.6869999999999994E-3</v>
       </c>
@@ -29837,7 +29832,7 @@
         <v>1.4159999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-9.9299999999999996E-3</v>
       </c>
@@ -29956,7 +29951,7 @@
         <v>1.4989999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-9.9539999999999993E-3</v>
       </c>
@@ -30075,7 +30070,7 @@
         <v>1.603E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-1.0066E-2</v>
       </c>
@@ -30194,7 +30189,7 @@
         <v>1.761E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-9.613E-3</v>
       </c>
@@ -30313,7 +30308,7 @@
         <v>1.9559999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-9.9059999999999999E-3</v>
       </c>
@@ -30432,7 +30427,7 @@
         <v>1.923E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-1.0269E-2</v>
       </c>
@@ -30551,7 +30546,7 @@
         <v>1.7819999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-1.0494E-2</v>
       </c>
@@ -30670,7 +30665,7 @@
         <v>1.673E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-1.0628E-2</v>
       </c>
@@ -30789,7 +30784,7 @@
         <v>1.5380000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-1.0729000000000001E-2</v>
       </c>
@@ -30908,7 +30903,7 @@
         <v>1.438E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-1.0631E-2</v>
       </c>
@@ -31027,7 +31022,7 @@
         <v>1.48E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-1.0574E-2</v>
       </c>
@@ -31146,7 +31141,7 @@
         <v>1.462E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-1.0762000000000001E-2</v>
       </c>
@@ -31265,7 +31260,7 @@
         <v>1.493E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-1.0592000000000001E-2</v>
       </c>
@@ -31384,7 +31379,7 @@
         <v>1.5020000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-1.0485E-2</v>
       </c>
@@ -31503,7 +31498,7 @@
         <v>1.573E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-1.0316000000000001E-2</v>
       </c>
@@ -31622,7 +31617,7 @@
         <v>1.58E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-9.9340000000000001E-3</v>
       </c>
@@ -31741,7 +31736,7 @@
         <v>1.627E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-9.9220000000000003E-3</v>
       </c>
@@ -31860,7 +31855,7 @@
         <v>1.6770000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-9.8539999999999999E-3</v>
       </c>
@@ -31979,7 +31974,7 @@
         <v>1.714E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-9.8270000000000007E-3</v>
       </c>
@@ -32098,7 +32093,7 @@
         <v>1.73E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-9.9989999999999992E-3</v>
       </c>
@@ -32217,7 +32212,7 @@
         <v>1.7210000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-9.9190000000000007E-3</v>
       </c>
@@ -32336,7 +32331,7 @@
         <v>1.761E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.001E-2</v>
       </c>
@@ -32455,7 +32450,7 @@
         <v>1.8079999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.0089000000000001E-2</v>
       </c>
@@ -32574,7 +32569,7 @@
         <v>1.856E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.0057E-2</v>
       </c>
@@ -32693,7 +32688,7 @@
         <v>1.818E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.0146000000000001E-2</v>
       </c>
@@ -32812,7 +32807,7 @@
         <v>1.745E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.0227999999999999E-2</v>
       </c>
@@ -32931,7 +32926,7 @@
         <v>1.737E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1.0244E-2</v>
       </c>
@@ -33050,7 +33045,7 @@
         <v>1.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.0130999999999999E-2</v>
       </c>
@@ -33169,7 +33164,7 @@
         <v>1.606E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-9.9909999999999999E-3</v>
       </c>
@@ -33288,7 +33283,7 @@
         <v>1.506E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-9.809E-3</v>
       </c>
@@ -33407,7 +33402,7 @@
         <v>1.39E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-9.5949999999999994E-3</v>
       </c>
@@ -33526,7 +33521,7 @@
         <v>1.312E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-9.0900000000000009E-3</v>
       </c>
@@ -33645,7 +33640,7 @@
         <v>1.1720000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-8.7760000000000008E-3</v>
       </c>
@@ -33764,7 +33759,7 @@
         <v>1.034E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-8.6680000000000004E-3</v>
       </c>
@@ -33883,7 +33878,7 @@
         <v>8.2299999999999995E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-8.4499999999999992E-3</v>
       </c>
@@ -34002,7 +33997,7 @@
         <v>7.9500000000000003E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-8.1530000000000005E-3</v>
       </c>
@@ -34121,7 +34116,7 @@
         <v>7.1400000000000001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-8.0400000000000003E-3</v>
       </c>
@@ -34240,7 +34235,7 @@
         <v>6.7500000000000004E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-8.0239999999999999E-3</v>
       </c>
@@ -34359,7 +34354,7 @@
         <v>5.9299999999999999E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-7.9559999999999995E-3</v>
       </c>
@@ -34478,7 +34473,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-8.1939999999999999E-3</v>
       </c>
@@ -34597,7 +34592,7 @@
         <v>6.8400000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-8.3949999999999997E-3</v>
       </c>
@@ -34716,7 +34711,7 @@
         <v>8.1499999999999997E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-8.6789999999999992E-3</v>
       </c>
@@ -34835,7 +34830,7 @@
         <v>9.1200000000000005E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-9.0480000000000005E-3</v>
       </c>
@@ -34954,7 +34949,7 @@
         <v>9.859999999999999E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-9.4400000000000005E-3</v>
       </c>
@@ -35073,7 +35068,7 @@
         <v>1.2539999999999999E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-9.6019999999999994E-3</v>
       </c>
@@ -35192,7 +35187,7 @@
         <v>1.353E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-9.7890000000000008E-3</v>
       </c>
@@ -35329,14 +35324,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="25" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="37" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="37" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>7.1572999999999998E-2</v>
       </c>
@@ -35455,7 +35450,7 @@
         <v>-2.3380000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6.2651999999999999E-2</v>
       </c>
@@ -35574,7 +35569,7 @@
         <v>-1.9682999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.4314000000000001E-2</v>
       </c>
@@ -35693,7 +35688,7 @@
         <v>-1.6813999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.7247999999999998E-2</v>
       </c>
@@ -35812,7 +35807,7 @@
         <v>-1.4808E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.1251000000000003E-2</v>
       </c>
@@ -35931,7 +35926,7 @@
         <v>-1.2588E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.6795000000000001E-2</v>
       </c>
@@ -36050,7 +36045,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.2614999999999998E-2</v>
       </c>
@@ -36169,7 +36164,7 @@
         <v>-9.7509999999999993E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.9378000000000001E-2</v>
       </c>
@@ -36288,7 +36283,7 @@
         <v>-8.7510000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.5205000000000002E-2</v>
       </c>
@@ -36407,7 +36402,7 @@
         <v>-7.8050000000000003E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.3598000000000001E-2</v>
       </c>
@@ -36526,7 +36521,7 @@
         <v>-6.509E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.0837000000000001E-2</v>
       </c>
@@ -36645,7 +36640,7 @@
         <v>-5.8510000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.8676999999999999E-2</v>
       </c>
@@ -36764,7 +36759,7 @@
         <v>-5.0020000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.7049999999999999E-2</v>
       </c>
@@ -36883,7 +36878,7 @@
         <v>-4.3670000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.5356E-2</v>
       </c>
@@ -37002,7 +36997,7 @@
         <v>-3.7940000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.3958E-2</v>
       </c>
@@ -37121,7 +37116,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.2519000000000001E-2</v>
       </c>
@@ -37240,7 +37235,7 @@
         <v>-2.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.1802E-2</v>
       </c>
@@ -37359,7 +37354,7 @@
         <v>-2.2980000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.1043000000000001E-2</v>
       </c>
@@ -37478,7 +37473,7 @@
         <v>-2.0479999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.0104E-2</v>
       </c>
@@ -37597,7 +37592,7 @@
         <v>-1.7619999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.4249999999999994E-3</v>
       </c>
@@ -37716,7 +37711,7 @@
         <v>-1.516E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8.763E-3</v>
       </c>
@@ -37835,7 +37830,7 @@
         <v>-1.268E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7.7510000000000001E-3</v>
       </c>
@@ -37954,7 +37949,7 @@
         <v>-1.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7.352E-3</v>
       </c>
@@ -38073,7 +38068,7 @@
         <v>-7.9500000000000003E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6.7600000000000004E-3</v>
       </c>
@@ -38192,7 +38187,7 @@
         <v>-6.6699999999999995E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.8780000000000004E-3</v>
       </c>
@@ -38311,7 +38306,7 @@
         <v>-5.1199999999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.8640000000000003E-3</v>
       </c>
@@ -38430,7 +38425,7 @@
         <v>-4.2499999999999998E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5.4489999999999999E-3</v>
       </c>
@@ -38549,7 +38544,7 @@
         <v>-2.05E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.9259999999999998E-3</v>
       </c>
@@ -38668,7 +38663,7 @@
         <v>-1.5799999999999999E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.594E-3</v>
       </c>
@@ -38787,7 +38782,7 @@
         <v>-1.16E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.4869999999999997E-3</v>
       </c>
@@ -38906,7 +38901,7 @@
         <v>-2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.4900000000000001E-3</v>
       </c>
@@ -39025,7 +39020,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.4079999999999996E-3</v>
       </c>
@@ -39144,7 +39139,7 @@
         <v>-2.8E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4.4019999999999997E-3</v>
       </c>
@@ -39263,7 +39258,7 @@
         <v>-9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4.2719999999999998E-3</v>
       </c>
@@ -39382,7 +39377,7 @@
         <v>-1.4E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.4060000000000002E-3</v>
       </c>
@@ -39501,7 +39496,7 @@
         <v>-9.1000000000000003E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4.3759999999999997E-3</v>
       </c>
@@ -39620,7 +39615,7 @@
         <v>-2.04E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4.47E-3</v>
       </c>
@@ -39739,7 +39734,7 @@
         <v>-2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4.5999999999999999E-3</v>
       </c>
@@ -39858,7 +39853,7 @@
         <v>-3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4.7210000000000004E-3</v>
       </c>
@@ -39977,7 +39972,7 @@
         <v>-4.6299999999999998E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.8040000000000001E-3</v>
       </c>
@@ -40096,7 +40091,7 @@
         <v>-5.8799999999999998E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4.9699999999999996E-3</v>
       </c>
@@ -40215,7 +40210,7 @@
         <v>-7.0799999999999997E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.0530000000000002E-3</v>
       </c>
@@ -40334,7 +40329,7 @@
         <v>-7.9699999999999997E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.1289999999999999E-3</v>
       </c>
@@ -40453,7 +40448,7 @@
         <v>-8.4500000000000005E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.195E-3</v>
       </c>
@@ -40572,7 +40567,7 @@
         <v>-9.01E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.3629999999999997E-3</v>
       </c>
@@ -40691,7 +40686,7 @@
         <v>-9.1100000000000003E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.3049999999999998E-3</v>
       </c>
@@ -40810,7 +40805,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.6100000000000004E-3</v>
       </c>
@@ -40929,7 +40924,7 @@
         <v>-9.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.6410000000000002E-3</v>
       </c>
@@ -41048,7 +41043,7 @@
         <v>-1.2030000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5.8500000000000002E-3</v>
       </c>
@@ -41167,7 +41162,7 @@
         <v>-1.3129999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.9480000000000002E-3</v>
       </c>
@@ -41286,7 +41281,7 @@
         <v>-1.438E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5.8970000000000003E-3</v>
       </c>
@@ -41405,7 +41400,7 @@
         <v>-1.629E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.9259999999999998E-3</v>
       </c>
@@ -41524,7 +41519,7 @@
         <v>-1.5790000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.9630000000000004E-3</v>
       </c>
@@ -41643,7 +41638,7 @@
         <v>-1.6509999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.9350000000000002E-3</v>
       </c>
@@ -41762,7 +41757,7 @@
         <v>-1.586E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.9199999999999999E-3</v>
       </c>
@@ -41881,7 +41876,7 @@
         <v>-1.48E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5.8719999999999996E-3</v>
       </c>
@@ -42000,7 +41995,7 @@
         <v>-1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5.5929999999999999E-3</v>
       </c>
@@ -42119,7 +42114,7 @@
         <v>-1.387E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5.6820000000000004E-3</v>
       </c>
@@ -42238,7 +42233,7 @@
         <v>-1.235E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.424E-3</v>
       </c>
@@ -42357,7 +42352,7 @@
         <v>-1.2589999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.3379999999999999E-3</v>
       </c>
@@ -42476,7 +42471,7 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5.1489999999999999E-3</v>
       </c>
@@ -42595,7 +42590,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5.0509999999999999E-3</v>
       </c>
@@ -42714,7 +42709,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4.999E-3</v>
       </c>
@@ -42833,7 +42828,7 @@
         <v>-7.9500000000000003E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4.7819999999999998E-3</v>
       </c>
@@ -42952,7 +42947,7 @@
         <v>-6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4.6860000000000001E-3</v>
       </c>
@@ -43071,7 +43066,7 @@
         <v>-6.1300000000000005E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4.4910000000000002E-3</v>
       </c>
@@ -43190,7 +43185,7 @@
         <v>-4.57E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4.3439999999999998E-3</v>
       </c>
@@ -43309,7 +43304,7 @@
         <v>-4.0700000000000003E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4.0090000000000004E-3</v>
       </c>
@@ -43428,7 +43423,7 @@
         <v>-4.2299999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3.9750000000000002E-3</v>
       </c>
@@ -43547,7 +43542,7 @@
         <v>-2.33E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3.6459999999999999E-3</v>
       </c>
@@ -43666,7 +43661,7 @@
         <v>-2.43E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3.9090000000000001E-3</v>
       </c>
@@ -43785,7 +43780,7 @@
         <v>-2.14E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3.9649999999999998E-3</v>
       </c>
@@ -43904,7 +43899,7 @@
         <v>-1.93E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4.0959999999999998E-3</v>
       </c>
@@ -44023,7 +44018,7 @@
         <v>-2.23E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.2560000000000002E-3</v>
       </c>
@@ -44142,7 +44137,7 @@
         <v>-2.12E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3.7390000000000001E-3</v>
       </c>
@@ -44261,7 +44256,7 @@
         <v>-1.6100000000000001E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3.7320000000000001E-3</v>
       </c>
@@ -44380,7 +44375,7 @@
         <v>-3.5799999999999997E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3.8240000000000001E-3</v>
       </c>
@@ -44499,7 +44494,7 @@
         <v>-2.92E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3.728E-3</v>
       </c>
@@ -44618,7 +44613,7 @@
         <v>-3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3.6800000000000001E-3</v>
       </c>
@@ -44737,7 +44732,7 @@
         <v>-4.84E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3.8670000000000002E-3</v>
       </c>
@@ -44856,7 +44851,7 @@
         <v>-3.4400000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3.8560000000000001E-3</v>
       </c>
@@ -44975,7 +44970,7 @@
         <v>-5.5599999999999996E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3.9820000000000003E-3</v>
       </c>
@@ -45094,7 +45089,7 @@
         <v>-6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3.7190000000000001E-3</v>
       </c>
@@ -45213,7 +45208,7 @@
         <v>-5.1000000000000004E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3.9360000000000003E-3</v>
       </c>
@@ -45332,7 +45327,7 @@
         <v>-6.2299999999999996E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4.1279999999999997E-3</v>
       </c>
@@ -45451,7 +45446,7 @@
         <v>-6.7900000000000002E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3.4510000000000001E-3</v>
       </c>
@@ -45570,7 +45565,7 @@
         <v>-5.5500000000000005E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4.1050000000000001E-3</v>
       </c>
@@ -45689,7 +45684,7 @@
         <v>-4.4299999999999998E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3.437E-3</v>
       </c>
